--- a/output/amount-of-files.xlsx
+++ b/output/amount-of-files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDBD46E-5448-3745-B744-9A20C4267136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9E25F-C4C8-3E41-ACEE-0513D07CD190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31560" yWindow="600" windowWidth="27920" windowHeight="15900" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
+    <workbookView xWindow="-36220" yWindow="680" windowWidth="27920" windowHeight="15900" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
   </bookViews>
   <sheets>
     <sheet name="50files" sheetId="2" r:id="rId1"/>
@@ -2789,204 +2789,282 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'500files'!$C$1:$C$65</c:f>
+              <c:f>'500files'!$C$1:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>23.928144454956001</c:v>
+                  <c:v>25.365270614623999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1916179656982</c:v>
+                  <c:v>23.431138992309499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5269470214843</c:v>
+                  <c:v>22.251497268676701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.269462585449201</c:v>
+                  <c:v>22.4071865081787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.592815399169901</c:v>
+                  <c:v>23.3772468566894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.1856288909912</c:v>
+                  <c:v>24.113773345947202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.622755050659102</c:v>
+                  <c:v>22.820360183715799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.1736526489257</c:v>
+                  <c:v>23.347307205200099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.419162750244102</c:v>
+                  <c:v>23.1377258300781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.7305393218994</c:v>
+                  <c:v>22.712575912475501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.9161682128906</c:v>
+                  <c:v>22.497007369995099</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>23.0718574523925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.089820861816399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.389223098754801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.8682651519775</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>23.706586837768501</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.8802394866943</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.371257781982401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.820360183715799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.179641723632798</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.329341888427699</c:v>
+                  <c:v>24.335330963134702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.149702072143501</c:v>
+                  <c:v>23.3053894042968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.724552154541001</c:v>
+                  <c:v>24.652694702148398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.532934188842699</c:v>
+                  <c:v>25.1017971038818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.047904968261701</c:v>
+                  <c:v>23.6287441253662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.347307205200099</c:v>
+                  <c:v>25.688623428344702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.083833694458001</c:v>
+                  <c:v>25.125749588012599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.742515563964801</c:v>
+                  <c:v>25.1017971038818</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.712575912475501</c:v>
+                  <c:v>25.131736755371001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.700599670410099</c:v>
+                  <c:v>24.898204803466701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.598802566528299</c:v>
+                  <c:v>25.215570449829102</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.275449752807599</c:v>
+                  <c:v>24.7485046386718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.6287441253662</c:v>
+                  <c:v>24.754491806030199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.119762420654201</c:v>
+                  <c:v>27.353294372558501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.712575912475501</c:v>
+                  <c:v>24.844312667846602</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.131736755371001</c:v>
+                  <c:v>24.083833694458001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>26.449102401733398</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.520959854125898</c:v>
+                  <c:v>26.311378479003899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.467067718505799</c:v>
+                  <c:v>26.1077861785888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.676647186279201</c:v>
+                  <c:v>25.4071865081787</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>25.9880256652832</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.431138992309499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.149702072143501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.694612503051701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.694612503051701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.712575912475501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.7305393218994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.011976242065401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.538923263549801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.550899505615199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.598802566528299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.3592815399169</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.443115234375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.826347351074201</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.778444290161101</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.479042053222599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.2574863433837</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.910181045532202</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.964073181152301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.473054885864201</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.778444290161101</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.143712997436499</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.467067718505799</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.994012832641602</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.856288909912099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.658683776855401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.083833694458001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24.784431457519499</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.2395210266113</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.3053894042968</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.712575912475501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.910181045532202</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.760480880737301</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.1736545562744</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.796407699584901</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.497007369995099</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.688623428344702</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.964073181152301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.556886672973601</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.904191970825099</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>25.850299835205</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.275449752807599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26.389223098754801</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>27.2215576171875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.0718574523925</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.1556892395019</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25.964073181152301</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26.143712997436499</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25.041917800903299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.245510101318299</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>24.233533859252901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25.1077861785888</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25.215570449829102</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.263473510742099</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="77">
+                  <c:v>26.179641723632798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.131736755371001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25.125749588012599</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>25.856288909912099</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.4071865081787</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25.113773345947202</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>26.592815399169901</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>25.706586837768501</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>25.2574863433837</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>25.784431457519499</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>26.065868377685501</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25.5269470214843</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>25.479042053222599</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>26.3592815399169</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>24.7305393218994</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25.3053894042968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>25.371257781982401</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25.215570449829102</c:v>
+                <c:pt idx="81">
+                  <c:v>26.011976242065401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.0359287261962</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26.1556892395019</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25.0538940429687</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.497007369995099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24.293413162231399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.772455215454102</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.8023967742919</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.179641723632798</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25.3413181304931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,204 +3096,282 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'500files'!$B$1:$B$65</c:f>
+              <c:f>'500files'!$B$1:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>24.737804412841701</c:v>
+                  <c:v>24.7073154449462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.213413238525298</c:v>
+                  <c:v>25.6463413238525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.993902206420898</c:v>
+                  <c:v>29.262193679809499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.951217651367099</c:v>
+                  <c:v>31.493902206420898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.329265594482401</c:v>
+                  <c:v>32.445121765136697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.414634704589801</c:v>
+                  <c:v>33.396339416503899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.591461181640597</c:v>
+                  <c:v>34.182926177978501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.981704711913999</c:v>
+                  <c:v>34.932926177978501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.682926177978501</c:v>
+                  <c:v>35.689022064208899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.329265594482401</c:v>
+                  <c:v>37.5609741210937</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>37.670730590820298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.475608825683501</c:v>
+                  <c:v>37.426826477050703</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.079265594482401</c:v>
+                  <c:v>37.451217651367102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.8719482421875</c:v>
+                  <c:v>38.012195587158203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.298778533935497</c:v>
+                  <c:v>41.1646308898925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.359752655029297</c:v>
+                  <c:v>41.1219482421875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.420730590820298</c:v>
+                  <c:v>43.140243530273402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.3109741210937</c:v>
+                  <c:v>43.3719482421875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.640243530273402</c:v>
+                  <c:v>43.890243530273402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.951217651367102</c:v>
+                  <c:v>45.939022064208899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.432926177978501</c:v>
+                  <c:v>45.463413238525298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.969509124755803</c:v>
+                  <c:v>47.756095886230398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.012191772460902</c:v>
+                  <c:v>48.774387359619098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49.707313537597599</c:v>
+                  <c:v>48.3109741210937</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.542682647705</c:v>
+                  <c:v>50.939022064208899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.067070007324197</c:v>
+                  <c:v>51.829265594482401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.201217651367102</c:v>
+                  <c:v>50.682926177978501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52.878047943115199</c:v>
+                  <c:v>51.865852355957003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.012191772460902</c:v>
+                  <c:v>53.390243530273402</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.384143829345703</c:v>
+                  <c:v>55.262191772460902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56.140243530273402</c:v>
+                  <c:v>55.670730590820298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.054874420166001</c:v>
+                  <c:v>55.609752655029297</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.402435302734297</c:v>
+                  <c:v>55.6646308898925</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>57.963413238525298</c:v>
+                  <c:v>57.737804412841797</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.896339416503899</c:v>
+                  <c:v>57.042682647705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57.890243530273402</c:v>
+                  <c:v>57.707313537597599</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60.597557067871001</c:v>
+                  <c:v>58.451217651367102</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.463413238525298</c:v>
+                  <c:v>59.445117950439403</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61.384143829345703</c:v>
+                  <c:v>59.646339416503899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.975608825683501</c:v>
+                  <c:v>61.506095886230398</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.432926177978501</c:v>
+                  <c:v>60.585365295410099</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.774387359619098</c:v>
+                  <c:v>61.085365295410099</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.628047943115199</c:v>
+                  <c:v>62.3536567687988</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>63.1036567687988</c:v>
+                  <c:v>62.207313537597599</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.012191772460902</c:v>
+                  <c:v>62.713413238525298</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>63.073169708251903</c:v>
+                  <c:v>63.054874420166001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>64.804878234863196</c:v>
+                  <c:v>62.3109741210937</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63.536582946777301</c:v>
+                  <c:v>62.262191772460902</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>63.817070007324197</c:v>
+                  <c:v>64.414634704589801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.164634704589801</c:v>
+                  <c:v>63.512191772460902</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>66.615852355957003</c:v>
+                  <c:v>64.390243530273395</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65.439018249511705</c:v>
+                  <c:v>65.091461181640597</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65.25</c:v>
+                  <c:v>64.609756469726506</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66.981704711914006</c:v>
+                  <c:v>64.890243530273395</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>66.207313537597599</c:v>
+                  <c:v>64.798774719238196</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.756095886230398</c:v>
+                  <c:v>65.189018249511705</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.091461181640597</c:v>
+                  <c:v>66.323165893554602</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>66.189018249511705</c:v>
+                  <c:v>66.402435302734304</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>67.475608825683594</c:v>
+                  <c:v>64.664634704589801</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>66.451217651367102</c:v>
+                  <c:v>67.585365295410099</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>66.993896484375</c:v>
+                  <c:v>65.713409423828097</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>66.908531188964801</c:v>
+                  <c:v>66.518287658691406</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.725608825683594</c:v>
+                  <c:v>67.060974121093693</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>67.689018249511705</c:v>
+                  <c:v>67.628044128417898</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>68.682922363281193</c:v>
+                  <c:v>66.939018249511705</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.201217651367102</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.689018249511705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.896339416503906</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.353652954101506</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70.560974121093693</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70.012191772460895</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>70.963409423828097</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>70.317070007324205</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.408531188964801</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>72.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71.189018249511705</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72.262191772460895</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>71.579269409179602</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72.695121765136705</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71.524391174316406</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72.292678833007798</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>72.164634704589801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72.274391174316406</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73.628044128417898</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>72.091461181640597</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73.347557067871094</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>72.487800598144503</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73.109756469726506</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>73.664634704589801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74.1219482421875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8371,10 +8527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F87E5C3-EEAD-A44E-A86A-801C73B6171A}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8384,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>24.737804412841701</v>
+        <v>24.7073154449462</v>
       </c>
       <c r="C1">
-        <v>23.928144454956001</v>
+        <v>25.365270614623999</v>
       </c>
       <c r="D1">
-        <v>0.69707530736923196</v>
+        <v>0.69407898187637296</v>
       </c>
       <c r="E1">
-        <v>1.3907158374786299</v>
+        <v>1.3913315534591599</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -8401,16 +8557,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26.213413238525298</v>
+        <v>25.6463413238525</v>
       </c>
       <c r="C2">
-        <v>25.1916179656982</v>
+        <v>23.431138992309499</v>
       </c>
       <c r="D2">
-        <v>0.69365197420120195</v>
+        <v>0.69228112697601296</v>
       </c>
       <c r="E2">
-        <v>1.3874135017395</v>
+        <v>1.3901168107986399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8418,16 +8574,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27.993902206420898</v>
+        <v>29.262193679809499</v>
       </c>
       <c r="C3">
-        <v>24.5269470214843</v>
+        <v>22.251497268676701</v>
       </c>
       <c r="D3">
-        <v>0.69021266698837203</v>
+        <v>0.690315842628479</v>
       </c>
       <c r="E3">
-        <v>1.3886792659759499</v>
+        <v>1.3906338214874201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8435,16 +8591,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30.951217651367099</v>
+        <v>31.493902206420898</v>
       </c>
       <c r="C4">
-        <v>23.269462585449201</v>
+        <v>22.4071865081787</v>
       </c>
       <c r="D4">
-        <v>0.68783146142959595</v>
+        <v>0.688160359859466</v>
       </c>
       <c r="E4">
-        <v>1.3898800611495901</v>
+        <v>1.3917754888534499</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8452,16 +8608,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32.329265594482401</v>
+        <v>32.445121765136697</v>
       </c>
       <c r="C5">
-        <v>24.592815399169901</v>
+        <v>23.3772468566894</v>
       </c>
       <c r="D5">
-        <v>0.68464726209640503</v>
+        <v>0.68462008237838701</v>
       </c>
       <c r="E5">
-        <v>1.3907111883163401</v>
+        <v>1.3937170505523599</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8469,16 +8625,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33.414634704589801</v>
+        <v>33.396339416503899</v>
       </c>
       <c r="C6">
-        <v>25.1856288909912</v>
+        <v>24.113773345947202</v>
       </c>
       <c r="D6">
-        <v>0.68122524023055997</v>
+        <v>0.68234181404113703</v>
       </c>
       <c r="E6">
-        <v>1.3930416107177701</v>
+        <v>1.3954260349273599</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8486,16 +8642,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>33.591461181640597</v>
+        <v>34.182926177978501</v>
       </c>
       <c r="C7">
-        <v>22.622755050659102</v>
+        <v>22.820360183715799</v>
       </c>
       <c r="D7">
-        <v>0.67850142717361395</v>
+        <v>0.67867583036422696</v>
       </c>
       <c r="E7">
-        <v>1.40360939502716</v>
+        <v>1.4056481122970499</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -8503,16 +8659,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34.981704711913999</v>
+        <v>34.932926177978501</v>
       </c>
       <c r="C8">
-        <v>24.1736526489257</v>
+        <v>23.347307205200099</v>
       </c>
       <c r="D8">
-        <v>0.67510926723480202</v>
+        <v>0.67488753795623702</v>
       </c>
       <c r="E8">
-        <v>1.40078485012054</v>
+        <v>1.40547275543212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8520,16 +8676,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36.682926177978501</v>
+        <v>35.689022064208899</v>
       </c>
       <c r="C9">
-        <v>23.419162750244102</v>
+        <v>23.1377258300781</v>
       </c>
       <c r="D9">
-        <v>0.66992783546447698</v>
+        <v>0.67082029581069902</v>
       </c>
       <c r="E9">
-        <v>1.40876817703247</v>
+        <v>1.41097724437713</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -8537,16 +8693,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>36.329265594482401</v>
+        <v>37.5609741210937</v>
       </c>
       <c r="C10">
-        <v>22.7305393218994</v>
+        <v>22.712575912475501</v>
       </c>
       <c r="D10">
-        <v>0.66619187593460005</v>
+        <v>0.66342771053314198</v>
       </c>
       <c r="E10">
-        <v>1.42106580734252</v>
+        <v>1.4307551383972099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -8557,13 +8713,13 @@
         <v>37.670730590820298</v>
       </c>
       <c r="C11">
-        <v>22.9161682128906</v>
+        <v>22.497007369995099</v>
       </c>
       <c r="D11">
-        <v>0.66150814294814997</v>
+        <v>0.66224926710128695</v>
       </c>
       <c r="E11">
-        <v>1.44398701190948</v>
+        <v>1.4438620805740301</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8571,16 +8727,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>38.475608825683501</v>
+        <v>37.426826477050703</v>
       </c>
       <c r="C12">
-        <v>23.706586837768501</v>
+        <v>23.0718574523925</v>
       </c>
       <c r="D12">
-        <v>0.65508013963699296</v>
+        <v>0.65670496225357</v>
       </c>
       <c r="E12">
-        <v>1.4547134637832599</v>
+        <v>1.4544694423675499</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8588,16 +8744,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39.079265594482401</v>
+        <v>37.451217651367102</v>
       </c>
       <c r="C13">
-        <v>22.8802394866943</v>
+        <v>23.089820861816399</v>
       </c>
       <c r="D13">
-        <v>0.65301197767257602</v>
+        <v>0.65232795476913397</v>
       </c>
       <c r="E13">
-        <v>1.4950242042541499</v>
+        <v>1.4841948747634801</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8605,16 +8761,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>38.8719482421875</v>
+        <v>38.012195587158203</v>
       </c>
       <c r="C14">
-        <v>23.371257781982401</v>
+        <v>23.389223098754801</v>
       </c>
       <c r="D14">
-        <v>0.64781117439269997</v>
+        <v>0.64949631690979004</v>
       </c>
       <c r="E14">
-        <v>1.4927847385406401</v>
+        <v>1.4872730970382599</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8622,16 +8778,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40.298778533935497</v>
+        <v>41.1646308898925</v>
       </c>
       <c r="C15">
-        <v>22.820360183715799</v>
+        <v>22.8682651519775</v>
       </c>
       <c r="D15">
-        <v>0.643293857574462</v>
+        <v>0.639265596866607</v>
       </c>
       <c r="E15">
-        <v>1.5255869626998899</v>
+        <v>1.53661131858825</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8639,16 +8795,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>41.359752655029297</v>
+        <v>41.1219482421875</v>
       </c>
       <c r="C16">
-        <v>23.179641723632798</v>
+        <v>23.706586837768501</v>
       </c>
       <c r="D16">
-        <v>0.63397729396820002</v>
+        <v>0.634330093860626</v>
       </c>
       <c r="E16">
-        <v>1.5541037321090601</v>
+        <v>1.54905700683593</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8656,16 +8812,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>42.420730590820298</v>
+        <v>43.140243530273402</v>
       </c>
       <c r="C17">
-        <v>24.329341888427699</v>
+        <v>24.335330963134702</v>
       </c>
       <c r="D17">
-        <v>0.62846416234970004</v>
+        <v>0.62823575735092096</v>
       </c>
       <c r="E17">
-        <v>1.5905523300170801</v>
+        <v>1.5847810506820601</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -8673,16 +8829,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>44.3109741210937</v>
+        <v>43.3719482421875</v>
       </c>
       <c r="C18">
-        <v>23.149702072143501</v>
+        <v>23.3053894042968</v>
       </c>
       <c r="D18">
-        <v>0.62386184930801303</v>
+        <v>0.62231969833374001</v>
       </c>
       <c r="E18">
-        <v>1.6492216587066599</v>
+        <v>1.64183461666107</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -8690,16 +8846,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>43.640243530273402</v>
+        <v>43.890243530273402</v>
       </c>
       <c r="C19">
-        <v>24.724552154541001</v>
+        <v>24.652694702148398</v>
       </c>
       <c r="D19">
-        <v>0.61795860528945901</v>
+        <v>0.61448371410369795</v>
       </c>
       <c r="E19">
-        <v>1.6032123565673799</v>
+        <v>1.64817702770233</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -8707,16 +8863,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45.951217651367102</v>
+        <v>45.939022064208899</v>
       </c>
       <c r="C20">
-        <v>24.532934188842699</v>
+        <v>25.1017971038818</v>
       </c>
       <c r="D20">
-        <v>0.61150330305099398</v>
+        <v>0.60694628953933705</v>
       </c>
       <c r="E20">
-        <v>1.61895883083343</v>
+        <v>1.6673568487167301</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -8724,16 +8880,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45.432926177978501</v>
+        <v>45.463413238525298</v>
       </c>
       <c r="C21">
-        <v>23.047904968261701</v>
+        <v>23.6287441253662</v>
       </c>
       <c r="D21">
-        <v>0.60385739803314198</v>
+        <v>0.60315352678298895</v>
       </c>
       <c r="E21">
-        <v>1.69632256031036</v>
+        <v>1.7268157005310001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -8741,16 +8897,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>46.969509124755803</v>
+        <v>47.756095886230398</v>
       </c>
       <c r="C22">
-        <v>24.347307205200099</v>
+        <v>25.688623428344702</v>
       </c>
       <c r="D22">
-        <v>0.59487557411193803</v>
+        <v>0.59195476770401001</v>
       </c>
       <c r="E22">
-        <v>1.68987584114074</v>
+        <v>1.74893033504486</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -8758,16 +8914,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>50.012191772460902</v>
+        <v>48.774387359619098</v>
       </c>
       <c r="C23">
-        <v>25.083833694458001</v>
+        <v>25.125749588012599</v>
       </c>
       <c r="D23">
-        <v>0.58318352699279696</v>
+        <v>0.58672314882278398</v>
       </c>
       <c r="E23">
-        <v>1.82282090187072</v>
+        <v>1.8886864185333201</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8775,16 +8931,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>49.707313537597599</v>
+        <v>48.3109741210937</v>
       </c>
       <c r="C24">
-        <v>25.742515563964801</v>
+        <v>25.1017971038818</v>
       </c>
       <c r="D24">
-        <v>0.58162671327590898</v>
+        <v>0.58157759904861395</v>
       </c>
       <c r="E24">
-        <v>1.7265446186065601</v>
+        <v>1.7947348356246899</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -8792,16 +8948,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>50.542682647705</v>
+        <v>50.939022064208899</v>
       </c>
       <c r="C25">
-        <v>24.712575912475501</v>
+        <v>25.131736755371001</v>
       </c>
       <c r="D25">
-        <v>0.57656556367874101</v>
+        <v>0.573963522911071</v>
       </c>
       <c r="E25">
-        <v>1.8174306154251001</v>
+        <v>1.8904736042022701</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -8809,16 +8965,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>52.067070007324197</v>
+        <v>51.829265594482401</v>
       </c>
       <c r="C26">
-        <v>24.700599670410099</v>
+        <v>24.898204803466701</v>
       </c>
       <c r="D26">
-        <v>0.56597584486007602</v>
+        <v>0.56413650512695301</v>
       </c>
       <c r="E26">
-        <v>1.83688676357269</v>
+        <v>1.89537978172302</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -8826,16 +8982,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>51.201217651367102</v>
+        <v>50.682926177978501</v>
       </c>
       <c r="C27">
-        <v>25.598802566528299</v>
+        <v>25.215570449829102</v>
       </c>
       <c r="D27">
-        <v>0.56426537036895696</v>
+        <v>0.56344783306121804</v>
       </c>
       <c r="E27">
-        <v>2.02519631385803</v>
+        <v>2.0137014389038002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -8843,16 +8999,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>52.878047943115199</v>
+        <v>51.865852355957003</v>
       </c>
       <c r="C28">
-        <v>26.275449752807599</v>
+        <v>24.7485046386718</v>
       </c>
       <c r="D28">
-        <v>0.55614626407623202</v>
+        <v>0.55500525236129705</v>
       </c>
       <c r="E28">
-        <v>1.9836112260818399</v>
+        <v>2.08548736572265</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -8860,16 +9016,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>53.012191772460902</v>
+        <v>53.390243530273402</v>
       </c>
       <c r="C29">
-        <v>25.6287441253662</v>
+        <v>24.754491806030199</v>
       </c>
       <c r="D29">
-        <v>0.55070191621780396</v>
+        <v>0.54847085475921598</v>
       </c>
       <c r="E29">
-        <v>2.1141285896301198</v>
+        <v>2.1432530879974299</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -8877,16 +9033,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>55.384143829345703</v>
+        <v>55.262191772460902</v>
       </c>
       <c r="C30">
-        <v>27.119762420654201</v>
+        <v>27.353294372558501</v>
       </c>
       <c r="D30">
-        <v>0.537242472171783</v>
+        <v>0.54109871387481601</v>
       </c>
       <c r="E30">
-        <v>2.02778792381286</v>
+        <v>2.0627782344818102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -8894,16 +9050,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>56.140243530273402</v>
+        <v>55.670730590820298</v>
       </c>
       <c r="C31">
-        <v>24.712575912475501</v>
+        <v>24.844312667846602</v>
       </c>
       <c r="D31">
-        <v>0.53441423177719105</v>
+        <v>0.531344413757324</v>
       </c>
       <c r="E31">
-        <v>2.0579133033752401</v>
+        <v>2.2406837940215998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -8911,16 +9067,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>56.054874420166001</v>
+        <v>55.609752655029297</v>
       </c>
       <c r="C32">
-        <v>24.131736755371001</v>
+        <v>24.083833694458001</v>
       </c>
       <c r="D32">
-        <v>0.52600324153900102</v>
+        <v>0.52842271327972401</v>
       </c>
       <c r="E32">
-        <v>2.1950309276580802</v>
+        <v>2.2746415138244598</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -8928,16 +9084,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>57.402435302734297</v>
+        <v>55.6646308898925</v>
       </c>
       <c r="C33">
         <v>26.449102401733398</v>
       </c>
       <c r="D33">
-        <v>0.51841723918914795</v>
+        <v>0.520247042179107</v>
       </c>
       <c r="E33">
-        <v>2.1611292362213099</v>
+        <v>2.26891613006591</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -8945,16 +9101,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>57.963413238525298</v>
+        <v>57.737804412841797</v>
       </c>
       <c r="C34">
-        <v>26.520959854125898</v>
+        <v>26.311378479003899</v>
       </c>
       <c r="D34">
-        <v>0.51766997575759799</v>
+        <v>0.51407319307327204</v>
       </c>
       <c r="E34">
-        <v>2.2717537879943799</v>
+        <v>2.3882210254669101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -8962,16 +9118,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>56.896339416503899</v>
+        <v>57.042682647705</v>
       </c>
       <c r="C35">
-        <v>27.467067718505799</v>
+        <v>26.1077861785888</v>
       </c>
       <c r="D35">
-        <v>0.50857681035995395</v>
+        <v>0.51021683216094904</v>
       </c>
       <c r="E35">
-        <v>2.2527213096618599</v>
+        <v>2.2134156227111799</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -8979,16 +9135,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>57.890243530273402</v>
+        <v>57.707313537597599</v>
       </c>
       <c r="C36">
-        <v>25.676647186279201</v>
+        <v>25.4071865081787</v>
       </c>
       <c r="D36">
-        <v>0.50668913125991799</v>
+        <v>0.50811254978179898</v>
       </c>
       <c r="E36">
-        <v>2.1048943996429399</v>
+        <v>2.2772843837738002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -8996,16 +9152,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>60.597557067871001</v>
+        <v>58.451217651367102</v>
       </c>
       <c r="C37">
-        <v>25.850299835205</v>
+        <v>25.9880256652832</v>
       </c>
       <c r="D37">
-        <v>0.49384129047393799</v>
+        <v>0.49875786900520303</v>
       </c>
       <c r="E37">
-        <v>2.6634178161621</v>
+        <v>2.9064157009124698</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -9013,16 +9169,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>59.463413238525298</v>
+        <v>59.445117950439403</v>
       </c>
       <c r="C38">
-        <v>26.275449752807599</v>
+        <v>26.431138992309499</v>
       </c>
       <c r="D38">
-        <v>0.492344349622726</v>
+        <v>0.49018782377242998</v>
       </c>
       <c r="E38">
-        <v>2.7589650154113698</v>
+        <v>2.7101418972015301</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -9030,16 +9186,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>61.384143829345703</v>
+        <v>59.646339416503899</v>
       </c>
       <c r="C39">
-        <v>26.389223098754801</v>
+        <v>26.149702072143501</v>
       </c>
       <c r="D39">
-        <v>0.48107141256332397</v>
+        <v>0.48599129915237399</v>
       </c>
       <c r="E39">
-        <v>2.4960150718688898</v>
+        <v>2.7179510593414302</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -9047,16 +9203,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>60.975608825683501</v>
+        <v>61.506095886230398</v>
       </c>
       <c r="C40">
-        <v>27.2215576171875</v>
+        <v>26.694612503051701</v>
       </c>
       <c r="D40">
-        <v>0.480131596326828</v>
+        <v>0.484393030405044</v>
       </c>
       <c r="E40">
-        <v>2.4122252464294398</v>
+        <v>2.70161652565002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -9064,16 +9220,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>61.432926177978501</v>
+        <v>60.585365295410099</v>
       </c>
       <c r="C41">
-        <v>25.0718574523925</v>
+        <v>25.694612503051701</v>
       </c>
       <c r="D41">
-        <v>0.48165914416313099</v>
+        <v>0.47869998216629001</v>
       </c>
       <c r="E41">
-        <v>2.65030741691589</v>
+        <v>2.8246257305145201</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,16 +9237,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>62.774387359619098</v>
+        <v>61.085365295410099</v>
       </c>
       <c r="C42">
-        <v>25.1556892395019</v>
+        <v>24.712575912475501</v>
       </c>
       <c r="D42">
-        <v>0.47341722249984702</v>
+        <v>0.47851189970970098</v>
       </c>
       <c r="E42">
-        <v>2.8028659820556601</v>
+        <v>2.8171873092651301</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -9098,16 +9254,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>61.628047943115199</v>
+        <v>62.3536567687988</v>
       </c>
       <c r="C43">
-        <v>25.964073181152301</v>
+        <v>25.7305393218994</v>
       </c>
       <c r="D43">
-        <v>0.47248637676239003</v>
+        <v>0.47168231010437001</v>
       </c>
       <c r="E43">
-        <v>2.8810889720916699</v>
+        <v>2.98336458206176</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -9115,16 +9271,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>63.1036567687988</v>
+        <v>62.207313537597599</v>
       </c>
       <c r="C44">
-        <v>26.143712997436499</v>
+        <v>26.011976242065401</v>
       </c>
       <c r="D44">
-        <v>0.46110481023788402</v>
+        <v>0.46681582927703802</v>
       </c>
       <c r="E44">
-        <v>2.76766014099121</v>
+        <v>2.7322759628295898</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -9132,16 +9288,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>63.012191772460902</v>
+        <v>62.713413238525298</v>
       </c>
       <c r="C45">
-        <v>25.041917800903299</v>
+        <v>25.538923263549801</v>
       </c>
       <c r="D45">
-        <v>0.463377445936203</v>
+        <v>0.45818081498146002</v>
       </c>
       <c r="E45">
-        <v>2.9802286624908398</v>
+        <v>3.4614174365997301</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -9149,16 +9305,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>63.073169708251903</v>
+        <v>63.054874420166001</v>
       </c>
       <c r="C46">
-        <v>25.245510101318299</v>
+        <v>25.550899505615199</v>
       </c>
       <c r="D46">
-        <v>0.45617577433586098</v>
+        <v>0.46134138107299799</v>
       </c>
       <c r="E46">
-        <v>3.0099861621856601</v>
+        <v>3.1542170047760001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -9166,16 +9322,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>64.804878234863196</v>
+        <v>62.3109741210937</v>
       </c>
       <c r="C47">
-        <v>24.233533859252901</v>
+        <v>24.598802566528299</v>
       </c>
       <c r="D47">
-        <v>0.45580321550369202</v>
+        <v>0.46411922574043202</v>
       </c>
       <c r="E47">
-        <v>2.7618818283081001</v>
+        <v>3.0049266815185498</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -9183,16 +9339,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>63.536582946777301</v>
+        <v>62.262191772460902</v>
       </c>
       <c r="C48">
-        <v>25.1077861785888</v>
+        <v>25.3592815399169</v>
       </c>
       <c r="D48">
-        <v>0.45107504725456199</v>
+        <v>0.45363444089889499</v>
       </c>
       <c r="E48">
-        <v>2.7553341388702299</v>
+        <v>2.9408648014068599</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -9200,16 +9356,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>63.817070007324197</v>
+        <v>64.414634704589801</v>
       </c>
       <c r="C49">
-        <v>25.215570449829102</v>
+        <v>25.443115234375</v>
       </c>
       <c r="D49">
-        <v>0.44825705885887102</v>
+        <v>0.45255813002586298</v>
       </c>
       <c r="E49">
-        <v>3.2168917655944802</v>
+        <v>3.3472580909728999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -9217,16 +9373,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>65.164634704589801</v>
+        <v>63.512191772460902</v>
       </c>
       <c r="C50">
-        <v>25.263473510742099</v>
+        <v>25.826347351074201</v>
       </c>
       <c r="D50">
-        <v>0.437709361314773</v>
+        <v>0.45519822835922202</v>
       </c>
       <c r="E50">
-        <v>3.1492507457733101</v>
+        <v>3.0090949535369802</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -9234,16 +9390,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>66.615852355957003</v>
+        <v>64.390243530273395</v>
       </c>
       <c r="C51">
-        <v>25.856288909912099</v>
+        <v>26.778444290161101</v>
       </c>
       <c r="D51">
-        <v>0.43882945179939198</v>
+        <v>0.44211575388908297</v>
       </c>
       <c r="E51">
-        <v>3.0051512718200599</v>
+        <v>2.7699491977691602</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -9251,16 +9407,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>65.439018249511705</v>
+        <v>65.091461181640597</v>
       </c>
       <c r="C52">
-        <v>25.4071865081787</v>
+        <v>25.479042053222599</v>
       </c>
       <c r="D52">
-        <v>0.43921813368797302</v>
+        <v>0.44479572772979697</v>
       </c>
       <c r="E52">
-        <v>3.1104636192321702</v>
+        <v>2.7967662811279199</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -9268,16 +9424,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>65.25</v>
+        <v>64.609756469726506</v>
       </c>
       <c r="C53">
-        <v>25.113773345947202</v>
+        <v>25.2574863433837</v>
       </c>
       <c r="D53">
-        <v>0.43326511979103</v>
+        <v>0.44090926647186202</v>
       </c>
       <c r="E53">
-        <v>3.2430932521820002</v>
+        <v>3.0253312587738002</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -9285,16 +9441,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>66.981704711914006</v>
+        <v>64.890243530273395</v>
       </c>
       <c r="C54">
-        <v>26.592815399169901</v>
+        <v>25.910181045532202</v>
       </c>
       <c r="D54">
-        <v>0.43340024352073597</v>
+        <v>0.439308851957321</v>
       </c>
       <c r="E54">
-        <v>3.1928076744079501</v>
+        <v>3.0331926345825102</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -9302,16 +9458,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>66.207313537597599</v>
+        <v>64.798774719238196</v>
       </c>
       <c r="C55">
-        <v>25.706586837768501</v>
+        <v>24.964073181152301</v>
       </c>
       <c r="D55">
-        <v>0.42471534013748102</v>
+        <v>0.43697565793991</v>
       </c>
       <c r="E55">
-        <v>3.6636729240417401</v>
+        <v>3.3436682224273602</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -9319,16 +9475,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>65.756095886230398</v>
+        <v>65.189018249511705</v>
       </c>
       <c r="C56">
-        <v>25.2574863433837</v>
+        <v>25.473054885864201</v>
       </c>
       <c r="D56">
-        <v>0.43054914474487299</v>
+        <v>0.432375907897949</v>
       </c>
       <c r="E56">
-        <v>3.1712241172790501</v>
+        <v>3.15142726898193</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -9336,16 +9492,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>66.091461181640597</v>
+        <v>66.323165893554602</v>
       </c>
       <c r="C57">
-        <v>25.784431457519499</v>
+        <v>25.778444290161101</v>
       </c>
       <c r="D57">
-        <v>0.41825512051582298</v>
+        <v>0.42646184563636702</v>
       </c>
       <c r="E57">
-        <v>3.17988061904907</v>
+        <v>2.8232669830322199</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -9353,16 +9509,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>66.189018249511705</v>
+        <v>66.402435302734304</v>
       </c>
       <c r="C58">
-        <v>26.065868377685501</v>
+        <v>27.143712997436499</v>
       </c>
       <c r="D58">
-        <v>0.42555895447731001</v>
+        <v>0.43039157986640902</v>
       </c>
       <c r="E58">
-        <v>2.8166084289550701</v>
+        <v>2.6754808425903298</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9370,16 +9526,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>67.475608825683594</v>
+        <v>64.664634704589801</v>
       </c>
       <c r="C59">
-        <v>25.5269470214843</v>
+        <v>25.467067718505799</v>
       </c>
       <c r="D59">
-        <v>0.41996848583221402</v>
+        <v>0.42645156383514399</v>
       </c>
       <c r="E59">
-        <v>3.2224857807159402</v>
+        <v>2.96368408203125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -9387,16 +9543,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>66.451217651367102</v>
+        <v>67.585365295410099</v>
       </c>
       <c r="C60">
-        <v>25.479042053222599</v>
+        <v>24.994012832641602</v>
       </c>
       <c r="D60">
-        <v>0.42698043584823597</v>
+        <v>0.41407436132431003</v>
       </c>
       <c r="E60">
-        <v>3.1208035945892298</v>
+        <v>3.5480098724365199</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -9404,16 +9560,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>66.993896484375</v>
+        <v>65.713409423828097</v>
       </c>
       <c r="C61">
-        <v>26.3592815399169</v>
+        <v>25.856288909912099</v>
       </c>
       <c r="D61">
-        <v>0.41242799162864602</v>
+        <v>0.42035239934921198</v>
       </c>
       <c r="E61">
-        <v>2.7621810436248699</v>
+        <v>3.1242403984069802</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9421,16 +9577,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>66.908531188964801</v>
+        <v>66.518287658691406</v>
       </c>
       <c r="C62">
-        <v>24.7305393218994</v>
+        <v>24.658683776855401</v>
       </c>
       <c r="D62">
-        <v>0.40616500377655002</v>
+        <v>0.41605004668235701</v>
       </c>
       <c r="E62">
-        <v>3.5387775897979701</v>
+        <v>3.8070909976959202</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9438,16 +9594,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>67.725608825683594</v>
+        <v>67.060974121093693</v>
       </c>
       <c r="C63">
-        <v>25.3053894042968</v>
+        <v>25.083833694458001</v>
       </c>
       <c r="D63">
-        <v>0.40202873945236201</v>
+        <v>0.40703579783439597</v>
       </c>
       <c r="E63">
-        <v>3.3482594490051198</v>
+        <v>3.4684653282165501</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9455,16 +9611,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>67.689018249511705</v>
+        <v>67.628044128417898</v>
       </c>
       <c r="C64">
-        <v>25.371257781982401</v>
+        <v>24.784431457519499</v>
       </c>
       <c r="D64">
-        <v>0.40690779685974099</v>
+        <v>0.401586323976516</v>
       </c>
       <c r="E64">
-        <v>3.6750752925872798</v>
+        <v>3.5887901782989502</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -9472,16 +9628,458 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>68.682922363281193</v>
+        <v>66.939018249511705</v>
       </c>
       <c r="C65">
-        <v>25.215570449829102</v>
+        <v>25.2395210266113</v>
       </c>
       <c r="D65">
-        <v>0.401779115200042</v>
+        <v>0.41212663054466198</v>
       </c>
       <c r="E65">
-        <v>4.0025038719177202</v>
+        <v>3.3366835117339999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>67.25</v>
+      </c>
+      <c r="C66">
+        <v>25.3053894042968</v>
+      </c>
+      <c r="D66">
+        <v>0.40616419911384499</v>
+      </c>
+      <c r="E66">
+        <v>3.1462512016296298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>68.201217651367102</v>
+      </c>
+      <c r="C67">
+        <v>25.712575912475501</v>
+      </c>
+      <c r="D67">
+        <v>0.40472224354743902</v>
+      </c>
+      <c r="E67">
+        <v>3.5440466403961102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>68.689018249511705</v>
+      </c>
+      <c r="C68">
+        <v>24.910181045532202</v>
+      </c>
+      <c r="D68">
+        <v>0.39919036626815702</v>
+      </c>
+      <c r="E68">
+        <v>3.2894613742828298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>69.896339416503906</v>
+      </c>
+      <c r="C69">
+        <v>24.760480880737301</v>
+      </c>
+      <c r="D69">
+        <v>0.38850584626197798</v>
+      </c>
+      <c r="E69">
+        <v>3.6034970283508301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>70.353652954101506</v>
+      </c>
+      <c r="C70">
+        <v>25.1736545562744</v>
+      </c>
+      <c r="D70">
+        <v>0.38469231128692599</v>
+      </c>
+      <c r="E70">
+        <v>3.3981032371520898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70.560974121093693</v>
+      </c>
+      <c r="C71">
+        <v>24.796407699584901</v>
+      </c>
+      <c r="D71">
+        <v>0.37821093201637201</v>
+      </c>
+      <c r="E71">
+        <v>3.4557404518127401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>70.012191772460895</v>
+      </c>
+      <c r="C72">
+        <v>24.497007369995099</v>
+      </c>
+      <c r="D72">
+        <v>0.380923271179199</v>
+      </c>
+      <c r="E72">
+        <v>4.3002834320068297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>70.963409423828097</v>
+      </c>
+      <c r="C73">
+        <v>24.688623428344702</v>
+      </c>
+      <c r="D73">
+        <v>0.37189233303070002</v>
+      </c>
+      <c r="E73">
+        <v>4.2543582916259703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>70.317070007324205</v>
+      </c>
+      <c r="C74">
+        <v>24.964073181152301</v>
+      </c>
+      <c r="D74">
+        <v>0.38029175996780301</v>
+      </c>
+      <c r="E74">
+        <v>4.2165532112121502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>70.408531188964801</v>
+      </c>
+      <c r="C75">
+        <v>27.556886672973601</v>
+      </c>
+      <c r="D75">
+        <v>0.38084781169891302</v>
+      </c>
+      <c r="E75">
+        <v>3.3583178520202601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>72.243896484375</v>
+      </c>
+      <c r="C76">
+        <v>25.904191970825099</v>
+      </c>
+      <c r="D76">
+        <v>0.36228969693183899</v>
+      </c>
+      <c r="E76">
+        <v>3.7013142108917201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>71.189018249511705</v>
+      </c>
+      <c r="C77">
+        <v>25.850299835205</v>
+      </c>
+      <c r="D77">
+        <v>0.36639520525932301</v>
+      </c>
+      <c r="E77">
+        <v>3.07607698440551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>72.262191772460895</v>
+      </c>
+      <c r="C78">
+        <v>26.179641723632798</v>
+      </c>
+      <c r="D78">
+        <v>0.35581195354461598</v>
+      </c>
+      <c r="E78">
+        <v>3.7898185253143302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>71.579269409179602</v>
+      </c>
+      <c r="C79">
+        <v>27.131736755371001</v>
+      </c>
+      <c r="D79">
+        <v>0.36371639370918202</v>
+      </c>
+      <c r="E79">
+        <v>3.63780665397644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>72.695121765136705</v>
+      </c>
+      <c r="C80">
+        <v>25.125749588012599</v>
+      </c>
+      <c r="D80">
+        <v>0.35690340399742099</v>
+      </c>
+      <c r="E80">
+        <v>4.1664080619812003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>71.524391174316406</v>
+      </c>
+      <c r="C81">
+        <v>25.856288909912099</v>
+      </c>
+      <c r="D81">
+        <v>0.35974159836769098</v>
+      </c>
+      <c r="E81">
+        <v>3.85595273971557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>72.292678833007798</v>
+      </c>
+      <c r="C82">
+        <v>26.011976242065401</v>
+      </c>
+      <c r="D82">
+        <v>0.35746476054191501</v>
+      </c>
+      <c r="E82">
+        <v>3.75832748413085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>72.164634704589801</v>
+      </c>
+      <c r="C83">
+        <v>25.0359287261962</v>
+      </c>
+      <c r="D83">
+        <v>0.35489431023597701</v>
+      </c>
+      <c r="E83">
+        <v>3.8929359912872301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>72.274391174316406</v>
+      </c>
+      <c r="C84">
+        <v>26.1556892395019</v>
+      </c>
+      <c r="D84">
+        <v>0.35309934616088801</v>
+      </c>
+      <c r="E84">
+        <v>4.4235644340515101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>73.628044128417898</v>
+      </c>
+      <c r="C85">
+        <v>25.0538940429687</v>
+      </c>
+      <c r="D85">
+        <v>0.34767031669616699</v>
+      </c>
+      <c r="E85">
+        <v>4.74015140533447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>72.091461181640597</v>
+      </c>
+      <c r="C86">
+        <v>25.497007369995099</v>
+      </c>
+      <c r="D86">
+        <v>0.35064059495925898</v>
+      </c>
+      <c r="E86">
+        <v>4.2916960716247496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>73.347557067871094</v>
+      </c>
+      <c r="C87">
+        <v>24.293413162231399</v>
+      </c>
+      <c r="D87">
+        <v>0.34868332743644698</v>
+      </c>
+      <c r="E87">
+        <v>3.8454051017761199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>72.487800598144503</v>
+      </c>
+      <c r="C88">
+        <v>26.772455215454102</v>
+      </c>
+      <c r="D88">
+        <v>0.34937772154808</v>
+      </c>
+      <c r="E88">
+        <v>4.1016278266906703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>73.109756469726506</v>
+      </c>
+      <c r="C89">
+        <v>25.8023967742919</v>
+      </c>
+      <c r="D89">
+        <v>0.35218340158462502</v>
+      </c>
+      <c r="E89">
+        <v>4.4023203849792401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>73.664634704589801</v>
+      </c>
+      <c r="C90">
+        <v>27.179641723632798</v>
+      </c>
+      <c r="D90">
+        <v>0.342809438705444</v>
+      </c>
+      <c r="E90">
+        <v>4.2540831565856898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>74.1219482421875</v>
+      </c>
+      <c r="C91">
+        <v>25.3413181304931</v>
+      </c>
+      <c r="D91">
+        <v>0.34317058324813798</v>
+      </c>
+      <c r="E91">
+        <v>4.61743068695068</v>
       </c>
     </row>
   </sheetData>
@@ -9493,7 +10091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557F5C6-F7C3-2A40-891D-96BA5F29E064}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10648,7 +11246,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/amount-of-files.xlsx
+++ b/output/amount-of-files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9E25F-C4C8-3E41-ACEE-0513D07CD190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58222BDF-9628-764E-84CB-DB978486D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36220" yWindow="680" windowWidth="27920" windowHeight="15900" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
+    <workbookView xWindow="-29580" yWindow="2020" windowWidth="27920" windowHeight="15900" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
   </bookViews>
   <sheets>
     <sheet name="50files" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>epoch</t>
   </si>
@@ -2789,282 +2789,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'500files'!$C$1:$C$101</c:f>
+              <c:f>'500files'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>25.365270614623999</c:v>
+                  <c:v>23.845237731933501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.431138992309499</c:v>
+                  <c:v>24.059524536132798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.251497268676701</c:v>
+                  <c:v>24.726190567016602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.4071865081787</c:v>
+                  <c:v>25.7023811340332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.3772468566894</c:v>
+                  <c:v>23.059524536132798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.113773345947202</c:v>
+                  <c:v>23.261905670166001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.820360183715799</c:v>
+                  <c:v>22.7857151031494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.347307205200099</c:v>
+                  <c:v>22.892858505248999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.1377258300781</c:v>
+                  <c:v>22.964286804199201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.712575912475501</c:v>
+                  <c:v>23.321428298950099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.497007369995099</c:v>
+                  <c:v>23.214286804199201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.0718574523925</c:v>
+                  <c:v>23.595237731933501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.089820861816399</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.389223098754801</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.8682651519775</c:v>
+                  <c:v>24.190477371215799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.706586837768501</c:v>
+                  <c:v>24.976190567016602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.335330963134702</c:v>
+                  <c:v>27.1190490722656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.3053894042968</c:v>
+                  <c:v>26.392858505248999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.652694702148398</c:v>
+                  <c:v>28.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.1017971038818</c:v>
+                  <c:v>28.226190567016602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.6287441253662</c:v>
+                  <c:v>28.166667938232401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.688623428344702</c:v>
+                  <c:v>29.964286804199201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.125749588012599</c:v>
+                  <c:v>29.773809432983398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.1017971038818</c:v>
+                  <c:v>29.0833339691162</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.131736755371001</c:v>
+                  <c:v>30.0833339691162</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.898204803466701</c:v>
+                  <c:v>30.107143402099599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.215570449829102</c:v>
+                  <c:v>30.988096237182599</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.7485046386718</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.754491806030199</c:v>
+                  <c:v>31.071428298950099</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.353294372558501</c:v>
+                  <c:v>31.261905670166001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.844312667846602</c:v>
+                  <c:v>31.773809432983398</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.083833694458001</c:v>
+                  <c:v>30.607143402099599</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.449102401733398</c:v>
+                  <c:v>31.380952835083001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.311378479003899</c:v>
+                  <c:v>31.678571701049801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.1077861785888</c:v>
+                  <c:v>30.892858505248999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.4071865081787</c:v>
+                  <c:v>31.2857151031494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.9880256652832</c:v>
+                  <c:v>32.3214302062988</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.431138992309499</c:v>
+                  <c:v>31.726190567016602</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.149702072143501</c:v>
+                  <c:v>31.5357151031494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.694612503051701</c:v>
+                  <c:v>31.690477371215799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.694612503051701</c:v>
+                  <c:v>31.761905670166001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.712575912475501</c:v>
+                  <c:v>32.464286804199197</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.7305393218994</c:v>
+                  <c:v>31.416667938232401</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.011976242065401</c:v>
+                  <c:v>33.238094329833899</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.538923263549801</c:v>
+                  <c:v>32.595237731933501</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25.550899505615199</c:v>
+                  <c:v>33.035713195800703</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.598802566528299</c:v>
+                  <c:v>31.964286804199201</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.3592815399169</c:v>
+                  <c:v>32.607143402099602</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25.443115234375</c:v>
+                  <c:v>31.880952835083001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.826347351074201</c:v>
+                  <c:v>31.797618865966701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.778444290161101</c:v>
+                  <c:v>32.773811340332003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.479042053222599</c:v>
+                  <c:v>32.345237731933501</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.2574863433837</c:v>
+                  <c:v>33.642856597900298</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25.910181045532202</c:v>
+                  <c:v>32.023811340332003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.964073181152301</c:v>
+                  <c:v>30.809524536132798</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25.473054885864201</c:v>
+                  <c:v>31.654762268066399</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25.778444290161101</c:v>
+                  <c:v>32.869049072265597</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>27.143712997436499</c:v>
+                  <c:v>30.7857151031494</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.467067718505799</c:v>
+                  <c:v>31.964286804199201</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24.994012832641602</c:v>
+                  <c:v>32.190475463867102</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.856288909912099</c:v>
+                  <c:v>31.142858505248999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.658683776855401</c:v>
+                  <c:v>31.6190490722656</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.083833694458001</c:v>
+                  <c:v>32.166667938232401</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24.784431457519499</c:v>
+                  <c:v>34.095237731933501</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25.2395210266113</c:v>
+                  <c:v>32.464286804199197</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.3053894042968</c:v>
+                  <c:v>31.678571701049801</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25.712575912475501</c:v>
+                  <c:v>32.404762268066399</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.910181045532202</c:v>
+                  <c:v>31.690477371215799</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>24.760480880737301</c:v>
+                  <c:v>32.392856597900298</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>25.1736545562744</c:v>
+                  <c:v>32.761905670166001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>24.796407699584901</c:v>
+                  <c:v>31.1190490722656</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>24.497007369995099</c:v>
+                  <c:v>32.880954742431598</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.688623428344702</c:v>
+                  <c:v>31.178571701049801</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>24.964073181152301</c:v>
+                  <c:v>33.059524536132798</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.556886672973601</c:v>
+                  <c:v>31.404762268066399</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.904191970825099</c:v>
+                  <c:v>32.726192474365199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25.850299835205</c:v>
+                  <c:v>31.023809432983398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.179641723632798</c:v>
+                  <c:v>32.023811340332003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>27.131736755371001</c:v>
+                  <c:v>31.976190567016602</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25.125749588012599</c:v>
+                  <c:v>33.011905670166001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>25.856288909912099</c:v>
+                  <c:v>32.916667938232401</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26.011976242065401</c:v>
+                  <c:v>33.0833320617675</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25.0359287261962</c:v>
+                  <c:v>30.559524536132798</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26.1556892395019</c:v>
+                  <c:v>30.940477371215799</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>25.0538940429687</c:v>
+                  <c:v>30.845237731933501</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.497007369995099</c:v>
+                  <c:v>34.297618865966797</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>24.293413162231399</c:v>
+                  <c:v>31.142858505248999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>26.772455215454102</c:v>
+                  <c:v>30.880952835083001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>25.8023967742919</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>27.179641723632798</c:v>
+                  <c:v>32.214286804199197</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>25.3413181304931</c:v>
+                  <c:v>33.023811340332003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.071428298950099</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.595237731933501</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31.523809432983398</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.273809432983398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31.964286804199201</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32.059524536132798</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31.761905670166001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31.273809432983398</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32.416667938232401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,282 +3123,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'500files'!$B$1:$B$101</c:f>
+              <c:f>'500files'!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>24.7073154449462</c:v>
+                  <c:v>24.341463088989201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.6463413238525</c:v>
+                  <c:v>25.085365295410099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.262193679809499</c:v>
+                  <c:v>26.5609741210937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.493902206420898</c:v>
+                  <c:v>29.9146327972412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.445121765136697</c:v>
+                  <c:v>33.573169708251903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.396339416503899</c:v>
+                  <c:v>36.182926177978501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.182926177978501</c:v>
+                  <c:v>37.487804412841797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.932926177978501</c:v>
+                  <c:v>37.390243530273402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.689022064208899</c:v>
+                  <c:v>41.158535003662102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.5609741210937</c:v>
+                  <c:v>41.719509124755803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.670730590820298</c:v>
+                  <c:v>41.304878234863203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.426826477050703</c:v>
+                  <c:v>42.073169708251903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.451217651367102</c:v>
+                  <c:v>44.280487060546797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.012195587158203</c:v>
+                  <c:v>44.280487060546797</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.1646308898925</c:v>
+                  <c:v>45.756095886230398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.1219482421875</c:v>
+                  <c:v>46.158535003662102</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.140243530273402</c:v>
+                  <c:v>47.012191772460902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.3719482421875</c:v>
+                  <c:v>47.926826477050703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.890243530273402</c:v>
+                  <c:v>48.487804412841797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.939022064208899</c:v>
+                  <c:v>50.4146308898925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.463413238525298</c:v>
+                  <c:v>52.256095886230398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.756095886230398</c:v>
+                  <c:v>52.499996185302699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.774387359619098</c:v>
+                  <c:v>53.926826477050703</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.3109741210937</c:v>
+                  <c:v>53.9146308898925</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.939022064208899</c:v>
+                  <c:v>55.012191772460902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.829265594482401</c:v>
+                  <c:v>55.524387359619098</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.682926177978501</c:v>
+                  <c:v>57.085365295410099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.865852355957003</c:v>
+                  <c:v>56.804874420166001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53.390243530273402</c:v>
+                  <c:v>57.6219482421875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.262191772460902</c:v>
+                  <c:v>57.829265594482401</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.670730590820298</c:v>
+                  <c:v>59.378047943115199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.609752655029297</c:v>
+                  <c:v>59.292678833007798</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55.6646308898925</c:v>
+                  <c:v>60.1219482421875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>57.737804412841797</c:v>
+                  <c:v>59.939022064208899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57.042682647705</c:v>
+                  <c:v>62.073169708251903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57.707313537597599</c:v>
+                  <c:v>62.865852355957003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>58.451217651367102</c:v>
+                  <c:v>63.012191772460902</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.445117950439403</c:v>
+                  <c:v>64.158531188964801</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.646339416503899</c:v>
+                  <c:v>65.390243530273395</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>61.506095886230398</c:v>
+                  <c:v>66.1219482421875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.585365295410099</c:v>
+                  <c:v>66.463409423828097</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>61.085365295410099</c:v>
+                  <c:v>67.048774719238196</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.3536567687988</c:v>
+                  <c:v>66.829269409179602</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.207313537597599</c:v>
+                  <c:v>67.512191772460895</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.713413238525298</c:v>
+                  <c:v>68.634140014648395</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>63.054874420166001</c:v>
+                  <c:v>68.951217651367102</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.3109741210937</c:v>
+                  <c:v>70.158531188964801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62.262191772460902</c:v>
+                  <c:v>70.353652954101506</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>64.414634704589801</c:v>
+                  <c:v>70.609756469726506</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.512191772460902</c:v>
+                  <c:v>71.036582946777301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64.390243530273395</c:v>
+                  <c:v>71.426826477050696</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65.091461181640597</c:v>
+                  <c:v>71.243896484375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>64.609756469726506</c:v>
+                  <c:v>72.536582946777301</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64.890243530273395</c:v>
+                  <c:v>72.817070007324205</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.798774719238196</c:v>
+                  <c:v>73.195121765136705</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.189018249511705</c:v>
+                  <c:v>73.1219482421875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.323165893554602</c:v>
+                  <c:v>73.719512939453097</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>66.402435302734304</c:v>
+                  <c:v>73.134140014648395</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.664634704589801</c:v>
+                  <c:v>74.536582946777301</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>67.585365295410099</c:v>
+                  <c:v>74.951217651367102</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65.713409423828097</c:v>
+                  <c:v>74.804878234863196</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>66.518287658691406</c:v>
+                  <c:v>75.329261779785099</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.060974121093693</c:v>
+                  <c:v>73.804878234863196</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>67.628044128417898</c:v>
+                  <c:v>76.390243530273395</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66.939018249511705</c:v>
+                  <c:v>74.353652954101506</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.25</c:v>
+                  <c:v>75.707313537597599</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68.201217651367102</c:v>
+                  <c:v>75.695121765136705</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.689018249511705</c:v>
+                  <c:v>77.439018249511705</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69.896339416503906</c:v>
+                  <c:v>76.219512939453097</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70.353652954101506</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70.560974121093693</c:v>
+                  <c:v>76.804878234863196</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.012191772460895</c:v>
+                  <c:v>76.463409423828097</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>70.963409423828097</c:v>
+                  <c:v>76.097557067871094</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70.317070007324205</c:v>
+                  <c:v>77.073165893554602</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>70.408531188964801</c:v>
+                  <c:v>76.743896484375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>72.243896484375</c:v>
+                  <c:v>77.426826477050696</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>71.189018249511705</c:v>
+                  <c:v>78.743896484375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72.262191772460895</c:v>
+                  <c:v>78.451217651367102</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.579269409179602</c:v>
+                  <c:v>76.182922363281193</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>72.695121765136705</c:v>
+                  <c:v>77.548774719238196</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>71.524391174316406</c:v>
+                  <c:v>77.256095886230398</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>72.292678833007798</c:v>
+                  <c:v>78.012191772460895</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>72.164634704589801</c:v>
+                  <c:v>77.548774719238196</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>72.274391174316406</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>73.628044128417898</c:v>
+                  <c:v>78.731704711914006</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>72.091461181640597</c:v>
+                  <c:v>78.341461181640597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>73.347557067871094</c:v>
+                  <c:v>77.975608825683594</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>72.487800598144503</c:v>
+                  <c:v>77.658531188964801</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>73.109756469726506</c:v>
+                  <c:v>77.731704711914006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>73.664634704589801</c:v>
+                  <c:v>78.756095886230398</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>74.1219482421875</c:v>
+                  <c:v>78.231704711914006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>79.195121765136705</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>78.060974121093693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>77.219512939453097</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>79.865852355957003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.756095886230398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.634140014648395</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78.768287658691406</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79.036582946777301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,210 +3459,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1000files'!$B$1:$B$67</c:f>
+              <c:f>'1000files'!$B$1:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>23.298780441284102</c:v>
+                  <c:v>22.987804412841701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.304876327514599</c:v>
+                  <c:v>22.512193679809499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.170730590820298</c:v>
+                  <c:v>23.609754562377901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.743900299072202</c:v>
+                  <c:v>29.182926177978501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.341461181640597</c:v>
+                  <c:v>33.8536567687988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.262195587158203</c:v>
+                  <c:v>35.573169708251903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.512195587158203</c:v>
+                  <c:v>37.439022064208899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.859756469726499</c:v>
+                  <c:v>37.548778533935497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.585365295410099</c:v>
+                  <c:v>41.426826477050703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.975608825683501</c:v>
+                  <c:v>41.475608825683501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.024387359619098</c:v>
+                  <c:v>40.865852355957003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.804878234863203</c:v>
+                  <c:v>42.439022064208899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.0609741210937</c:v>
+                  <c:v>45.4146308898925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.701217651367102</c:v>
+                  <c:v>44.658535003662102</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.798778533935497</c:v>
+                  <c:v>47.0609741210937</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.597560882568303</c:v>
+                  <c:v>46.439022064208899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.902439117431598</c:v>
+                  <c:v>46.841461181640597</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.567070007324197</c:v>
+                  <c:v>47.5609741210937</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.817070007324197</c:v>
+                  <c:v>47.768291473388601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.237804412841797</c:v>
+                  <c:v>49.8536567687988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.75</c:v>
+                  <c:v>51.670730590820298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47.792682647705</c:v>
+                  <c:v>53.256095886230398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.231704711913999</c:v>
+                  <c:v>53.219509124755803</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.780487060546797</c:v>
+                  <c:v>53.719509124755803</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.554874420166001</c:v>
+                  <c:v>55.243900299072202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.481704711913999</c:v>
+                  <c:v>54.487804412841797</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.932926177978501</c:v>
+                  <c:v>56.304874420166001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.420730590820298</c:v>
+                  <c:v>57.268291473388601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.445121765136697</c:v>
+                  <c:v>57.682926177978501</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.951217651367102</c:v>
+                  <c:v>58.792678833007798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.774387359619098</c:v>
+                  <c:v>59.8536567687988</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.225608825683501</c:v>
+                  <c:v>59.768291473388601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56.439022064208899</c:v>
+                  <c:v>60.804874420166001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>57.817070007324197</c:v>
+                  <c:v>61.365852355957003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.408535003662102</c:v>
+                  <c:v>61.292678833007798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.554874420166001</c:v>
+                  <c:v>62.463413238525298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>58.573169708251903</c:v>
+                  <c:v>63.682926177978501</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.128047943115199</c:v>
+                  <c:v>63.597557067871001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61.243900299072202</c:v>
+                  <c:v>65.963409423828097</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.073169708251903</c:v>
+                  <c:v>65.134147644042898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.804874420166001</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>61.048778533935497</c:v>
+                  <c:v>67.207313537597599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.280487060546797</c:v>
+                  <c:v>66.780487060546804</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.8719482421875</c:v>
+                  <c:v>67.829269409179602</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.878047943115199</c:v>
+                  <c:v>68.170730590820298</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64.359756469726506</c:v>
+                  <c:v>69.926826477050696</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>63.798778533935497</c:v>
+                  <c:v>68.634140014648395</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63.0609741210937</c:v>
+                  <c:v>69.878044128417898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>63.597557067871001</c:v>
+                  <c:v>70.573165893554602</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>64.384147644042898</c:v>
+                  <c:v>70.634140014648395</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>65.993896484375</c:v>
+                  <c:v>71.731704711914006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65.792678833007798</c:v>
+                  <c:v>71.207313537597599</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65.054878234863196</c:v>
+                  <c:v>71.890243530273395</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>65.469512939453097</c:v>
+                  <c:v>72.451217651367102</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>65.597557067871094</c:v>
+                  <c:v>73.317070007324205</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>66.067070007324205</c:v>
+                  <c:v>72.792678833007798</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>65.530487060546804</c:v>
+                  <c:v>73.804878234863196</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.6219482421875</c:v>
+                  <c:v>74.036582946777301</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>67</c:v>
+                  <c:v>74.768287658691406</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>68.060974121093693</c:v>
+                  <c:v>74.158531188964801</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>66.170730590820298</c:v>
+                  <c:v>74.475608825683594</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>67.560974121093693</c:v>
+                  <c:v>74.195121765136705</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.957313537597599</c:v>
+                  <c:v>75.6219482421875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>68</c:v>
+                  <c:v>75.365852355957003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>68.530487060546804</c:v>
+                  <c:v>75.329261779785099</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>68.493896484375</c:v>
+                  <c:v>75.219512939453097</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68.890243530273395</c:v>
+                  <c:v>75.914634704589801</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>76.817070007324205</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>76.414634704589801</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76.573165893554602</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>76.085365295410099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>77.280487060546804</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.109756469726506</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>77.414634704589801</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76.902435302734304</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.341461181640597</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.670730590820298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77.524383544921804</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>76.719512939453097</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>77.390243530273395</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77.512191772460895</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>78.158531188964801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>79.109756469726506</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>78.243896484375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79.231704711914006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>78.414634704589801</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77.548774719238196</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78.902435302734304</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.012191772460895</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80.1219482421875</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>79.402435302734304</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>79.109756469726506</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79.524383544921804</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>80.414634704589801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>78.463409423828097</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>78.597557067871094</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>78.731704711914006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79.658531188964801</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79.256095886230398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,210 +3795,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'1000files'!$C$1:$C$67</c:f>
+              <c:f>'1000files'!$C$1:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>26.047904968261701</c:v>
+                  <c:v>25.297618865966701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.694612503051701</c:v>
+                  <c:v>24.488096237182599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.892215728759702</c:v>
+                  <c:v>21.3333339691162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.077844619750898</c:v>
+                  <c:v>21.892856597900298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.8023967742919</c:v>
+                  <c:v>22.3333339691162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.131736755371001</c:v>
+                  <c:v>23.047618865966701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.479042053222599</c:v>
+                  <c:v>22.309524536132798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.688623428344702</c:v>
+                  <c:v>22.380952835083001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.8323364257812</c:v>
+                  <c:v>22.654762268066399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.862276077270501</c:v>
+                  <c:v>23.273809432983398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.796407699584901</c:v>
+                  <c:v>23.226190567016602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.251497268676701</c:v>
+                  <c:v>24.130952835083001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.7305393218994</c:v>
+                  <c:v>23.845237731933501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.64670753479</c:v>
+                  <c:v>25.0833339691162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.622755050659102</c:v>
+                  <c:v>24.7023811340332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.401199340820298</c:v>
+                  <c:v>25.226190567016602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.065868377685501</c:v>
+                  <c:v>27.4523811340332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.910181045532202</c:v>
+                  <c:v>26.2023811340332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.113773345947202</c:v>
+                  <c:v>28.416667938232401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.814373016357401</c:v>
+                  <c:v>28.511905670166001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.167665481567301</c:v>
+                  <c:v>28.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.113773345947202</c:v>
+                  <c:v>29.2857151031494</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.826347351074201</c:v>
+                  <c:v>29.2857151031494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.5449104309082</c:v>
+                  <c:v>29.428571701049801</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.443115234375</c:v>
+                  <c:v>30.059524536132798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.946107864379801</c:v>
+                  <c:v>29.6190490722656</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.688623428344702</c:v>
+                  <c:v>30.559524536132798</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.6287441253662</c:v>
+                  <c:v>30.011905670166001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.9520969390869</c:v>
+                  <c:v>31.273809432983398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.994012832641602</c:v>
+                  <c:v>31.142858505248999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.8862285614013</c:v>
+                  <c:v>31.5357151031494</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.1856288909912</c:v>
+                  <c:v>30.559524536132798</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.760480880737301</c:v>
+                  <c:v>31.071428298950099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.419162750244102</c:v>
+                  <c:v>31.345237731933501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.658683776855401</c:v>
+                  <c:v>31.238096237182599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.64670753479</c:v>
+                  <c:v>31.297618865966701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.754491806030199</c:v>
+                  <c:v>32.559524536132798</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.077844619750898</c:v>
+                  <c:v>32.107143402099602</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.029941558837798</c:v>
+                  <c:v>31.392858505248999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.9520969390869</c:v>
+                  <c:v>32.238094329833899</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.694612503051701</c:v>
+                  <c:v>31.380952835083001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.1197605133056</c:v>
+                  <c:v>32.404762268066399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.3413181304931</c:v>
+                  <c:v>31.142858505248999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.1077861785888</c:v>
+                  <c:v>32.8333320617675</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.029941558837798</c:v>
+                  <c:v>33.047618865966797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25.574851989746001</c:v>
+                  <c:v>32.761905670166001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.197605133056602</c:v>
+                  <c:v>32.428573608398402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24.8682651519775</c:v>
+                  <c:v>32.964286804199197</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25.287425994873001</c:v>
+                  <c:v>32.607143402099602</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.143712997436499</c:v>
+                  <c:v>31.047618865966701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.329341888427699</c:v>
+                  <c:v>33.142856597900298</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.556886672973601</c:v>
+                  <c:v>32.297618865966797</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.335330963134702</c:v>
+                  <c:v>32.940475463867102</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.281438827514599</c:v>
+                  <c:v>31.976190567016602</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25.209581375121999</c:v>
+                  <c:v>31.226190567016602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25.389223098754801</c:v>
+                  <c:v>31.976190567016602</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25.8682651519775</c:v>
+                  <c:v>33.440475463867102</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.7305393218994</c:v>
+                  <c:v>31.380952835083001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.431138992309499</c:v>
+                  <c:v>30.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25.5808391571044</c:v>
+                  <c:v>31.523809432983398</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.700599670410099</c:v>
+                  <c:v>30.916667938232401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24.772455215454102</c:v>
+                  <c:v>32.535713195800703</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24.994012832641602</c:v>
+                  <c:v>32.654762268066399</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24.964073181152301</c:v>
+                  <c:v>33.511905670166001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25.083833694458001</c:v>
+                  <c:v>33.297618865966797</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.7664680480957</c:v>
+                  <c:v>31.857143402099599</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26.5808391571044</c:v>
+                  <c:v>31.595237731933501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.845237731933501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31.880952835083001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.059524536132798</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.392856597900298</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.416667938232401</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32.666667938232401</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.845237731933501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.916667938232401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.261905670166001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.738096237182599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.892858505248999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32.797618865966797</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31.2857151031494</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.464286804199197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.559524536132798</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.309524536132798</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.488096237182599</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.261905670166001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.964286804199201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31.8690490722656</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32.035713195800703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32.119049072265597</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.4523811340332</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.297618865966701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.214286804199197</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30.845237731933501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31.345237731933501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>31.8333339691162</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31.345237731933501</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30.690477371215799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32.642856597900298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8527,10 +8779,1742 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F87E5C3-EEAD-A44E-A86A-801C73B6171A}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.341463088989201</v>
+      </c>
+      <c r="C2">
+        <v>23.845237731933501</v>
+      </c>
+      <c r="D2">
+        <v>0.69746983051300004</v>
+      </c>
+      <c r="E2">
+        <v>1.3907266855239799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25.085365295410099</v>
+      </c>
+      <c r="C3">
+        <v>24.059524536132798</v>
+      </c>
+      <c r="D3">
+        <v>0.69611573219299305</v>
+      </c>
+      <c r="E3">
+        <v>1.3892618417739799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>26.5609741210937</v>
+      </c>
+      <c r="C4">
+        <v>24.726190567016602</v>
+      </c>
+      <c r="D4">
+        <v>0.69329494237899703</v>
+      </c>
+      <c r="E4">
+        <v>1.3881316184997501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>29.9146327972412</v>
+      </c>
+      <c r="C5">
+        <v>25.7023811340332</v>
+      </c>
+      <c r="D5">
+        <v>0.690371394157409</v>
+      </c>
+      <c r="E5">
+        <v>1.38850998878479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>33.573169708251903</v>
+      </c>
+      <c r="C6">
+        <v>23.059524536132798</v>
+      </c>
+      <c r="D6">
+        <v>0.68694734573364202</v>
+      </c>
+      <c r="E6">
+        <v>1.3897291421890201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36.182926177978501</v>
+      </c>
+      <c r="C7">
+        <v>23.261905670166001</v>
+      </c>
+      <c r="D7">
+        <v>0.68321055173873901</v>
+      </c>
+      <c r="E7">
+        <v>1.3919231891632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>37.487804412841797</v>
+      </c>
+      <c r="C8">
+        <v>22.7857151031494</v>
+      </c>
+      <c r="D8">
+        <v>0.67901438474655096</v>
+      </c>
+      <c r="E8">
+        <v>1.39460790157318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>37.390243530273402</v>
+      </c>
+      <c r="C9">
+        <v>22.892858505248999</v>
+      </c>
+      <c r="D9">
+        <v>0.67502212524413996</v>
+      </c>
+      <c r="E9">
+        <v>1.3986333608627299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>41.158535003662102</v>
+      </c>
+      <c r="C10">
+        <v>22.964286804199201</v>
+      </c>
+      <c r="D10">
+        <v>0.66988986730575495</v>
+      </c>
+      <c r="E10">
+        <v>1.4010920524597099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>41.719509124755803</v>
+      </c>
+      <c r="C11">
+        <v>23.321428298950099</v>
+      </c>
+      <c r="D11">
+        <v>0.66540241241455</v>
+      </c>
+      <c r="E11">
+        <v>1.4056043624877901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>41.304878234863203</v>
+      </c>
+      <c r="C12">
+        <v>23.214286804199201</v>
+      </c>
+      <c r="D12">
+        <v>0.66066312789916903</v>
+      </c>
+      <c r="E12">
+        <v>1.4117773771286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>42.073169708251903</v>
+      </c>
+      <c r="C13">
+        <v>23.595237731933501</v>
+      </c>
+      <c r="D13">
+        <v>0.65625</v>
+      </c>
+      <c r="E13">
+        <v>1.4143377542495701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>44.280487060546797</v>
+      </c>
+      <c r="C14">
+        <v>23.5</v>
+      </c>
+      <c r="D14">
+        <v>0.65004318952560403</v>
+      </c>
+      <c r="E14">
+        <v>1.4190647602081199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>44.280487060546797</v>
+      </c>
+      <c r="C15">
+        <v>24.5</v>
+      </c>
+      <c r="D15">
+        <v>0.64483219385147095</v>
+      </c>
+      <c r="E15">
+        <v>1.42378997802734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>45.756095886230398</v>
+      </c>
+      <c r="C16">
+        <v>24.190477371215799</v>
+      </c>
+      <c r="D16">
+        <v>0.63970881700515703</v>
+      </c>
+      <c r="E16">
+        <v>1.4256997108459399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>46.158535003662102</v>
+      </c>
+      <c r="C17">
+        <v>24.976190567016602</v>
+      </c>
+      <c r="D17">
+        <v>0.63229060173034601</v>
+      </c>
+      <c r="E17">
+        <v>1.4298025369644101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>47.012191772460902</v>
+      </c>
+      <c r="C18">
+        <v>27.1190490722656</v>
+      </c>
+      <c r="D18">
+        <v>0.62664115428924505</v>
+      </c>
+      <c r="E18">
+        <v>1.4328041076660101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>47.926826477050703</v>
+      </c>
+      <c r="C19">
+        <v>26.392858505248999</v>
+      </c>
+      <c r="D19">
+        <v>0.61952042579650801</v>
+      </c>
+      <c r="E19">
+        <v>1.4408923387527399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>48.487804412841797</v>
+      </c>
+      <c r="C20">
+        <v>28.25</v>
+      </c>
+      <c r="D20">
+        <v>0.61153262853622403</v>
+      </c>
+      <c r="E20">
+        <v>1.44053041934967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>50.4146308898925</v>
+      </c>
+      <c r="C21">
+        <v>28.226190567016602</v>
+      </c>
+      <c r="D21">
+        <v>0.604164719581604</v>
+      </c>
+      <c r="E21">
+        <v>1.4473402500152499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>52.256095886230398</v>
+      </c>
+      <c r="C22">
+        <v>28.166667938232401</v>
+      </c>
+      <c r="D22">
+        <v>0.59510493278503396</v>
+      </c>
+      <c r="E22">
+        <v>1.45337951183319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>52.499996185302699</v>
+      </c>
+      <c r="C23">
+        <v>29.964286804199201</v>
+      </c>
+      <c r="D23">
+        <v>0.590104579925537</v>
+      </c>
+      <c r="E23">
+        <v>1.4604073762893599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>53.926826477050703</v>
+      </c>
+      <c r="C24">
+        <v>29.773809432983398</v>
+      </c>
+      <c r="D24">
+        <v>0.58043724298477095</v>
+      </c>
+      <c r="E24">
+        <v>1.4750570058822601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>53.9146308898925</v>
+      </c>
+      <c r="C25">
+        <v>29.0833339691162</v>
+      </c>
+      <c r="D25">
+        <v>0.57332354784011796</v>
+      </c>
+      <c r="E25">
+        <v>1.46905422210693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>55.012191772460902</v>
+      </c>
+      <c r="C26">
+        <v>30.0833339691162</v>
+      </c>
+      <c r="D26">
+        <v>0.56355124711990301</v>
+      </c>
+      <c r="E26">
+        <v>1.48486983776092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>55.524387359619098</v>
+      </c>
+      <c r="C27">
+        <v>30.107143402099599</v>
+      </c>
+      <c r="D27">
+        <v>0.55417728424072199</v>
+      </c>
+      <c r="E27">
+        <v>1.50464487075805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>57.085365295410099</v>
+      </c>
+      <c r="C28">
+        <v>30.988096237182599</v>
+      </c>
+      <c r="D28">
+        <v>0.547002732753753</v>
+      </c>
+      <c r="E28">
+        <v>1.50075924396514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>56.804874420166001</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0.54164755344390803</v>
+      </c>
+      <c r="E29">
+        <v>1.52083539962768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>57.6219482421875</v>
+      </c>
+      <c r="C30">
+        <v>31.071428298950099</v>
+      </c>
+      <c r="D30">
+        <v>0.53364831209182695</v>
+      </c>
+      <c r="E30">
+        <v>1.5327172279357899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>57.829265594482401</v>
+      </c>
+      <c r="C31">
+        <v>31.261905670166001</v>
+      </c>
+      <c r="D31">
+        <v>0.52459633350372303</v>
+      </c>
+      <c r="E31">
+        <v>1.5394977331161499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>59.378047943115199</v>
+      </c>
+      <c r="C32">
+        <v>31.773809432983398</v>
+      </c>
+      <c r="D32">
+        <v>0.51625406742095903</v>
+      </c>
+      <c r="E32">
+        <v>1.5379956960678101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>59.292678833007798</v>
+      </c>
+      <c r="C33">
+        <v>30.607143402099599</v>
+      </c>
+      <c r="D33">
+        <v>0.50643432140350297</v>
+      </c>
+      <c r="E33">
+        <v>1.5547347068786599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>60.1219482421875</v>
+      </c>
+      <c r="C34">
+        <v>31.380952835083001</v>
+      </c>
+      <c r="D34">
+        <v>0.49986144900321899</v>
+      </c>
+      <c r="E34">
+        <v>1.58232104778289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>59.939022064208899</v>
+      </c>
+      <c r="C35">
+        <v>31.678571701049801</v>
+      </c>
+      <c r="D35">
+        <v>0.49188467860221802</v>
+      </c>
+      <c r="E35">
+        <v>1.57237064838409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>62.073169708251903</v>
+      </c>
+      <c r="C36">
+        <v>30.892858505248999</v>
+      </c>
+      <c r="D36">
+        <v>0.48437976837158198</v>
+      </c>
+      <c r="E36">
+        <v>1.64787149429321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>62.865852355957003</v>
+      </c>
+      <c r="C37">
+        <v>31.2857151031494</v>
+      </c>
+      <c r="D37">
+        <v>0.47699010372161799</v>
+      </c>
+      <c r="E37">
+        <v>1.60858595371246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>63.012191772460902</v>
+      </c>
+      <c r="C38">
+        <v>32.3214302062988</v>
+      </c>
+      <c r="D38">
+        <v>0.46874606609344399</v>
+      </c>
+      <c r="E38">
+        <v>1.6350277662277199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>64.158531188964801</v>
+      </c>
+      <c r="C39">
+        <v>31.726190567016602</v>
+      </c>
+      <c r="D39">
+        <v>0.46146795153617798</v>
+      </c>
+      <c r="E39">
+        <v>1.63094770908355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>65.390243530273395</v>
+      </c>
+      <c r="C40">
+        <v>31.5357151031494</v>
+      </c>
+      <c r="D40">
+        <v>0.45371425151824901</v>
+      </c>
+      <c r="E40">
+        <v>1.6968127489089899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>66.1219482421875</v>
+      </c>
+      <c r="C41">
+        <v>31.690477371215799</v>
+      </c>
+      <c r="D41">
+        <v>0.44583910703659002</v>
+      </c>
+      <c r="E41">
+        <v>1.6726659536361601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>66.463409423828097</v>
+      </c>
+      <c r="C42">
+        <v>31.761905670166001</v>
+      </c>
+      <c r="D42">
+        <v>0.44026508927345198</v>
+      </c>
+      <c r="E42">
+        <v>1.6747730970382599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>67.048774719238196</v>
+      </c>
+      <c r="C43">
+        <v>32.464286804199197</v>
+      </c>
+      <c r="D43">
+        <v>0.42470410466194097</v>
+      </c>
+      <c r="E43">
+        <v>1.65660953521728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>66.829269409179602</v>
+      </c>
+      <c r="C44">
+        <v>31.416667938232401</v>
+      </c>
+      <c r="D44">
+        <v>0.42460551857948298</v>
+      </c>
+      <c r="E44">
+        <v>1.69737160205841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>67.512191772460895</v>
+      </c>
+      <c r="C45">
+        <v>33.238094329833899</v>
+      </c>
+      <c r="D45">
+        <v>0.41858658194541898</v>
+      </c>
+      <c r="E45">
+        <v>1.70805728435516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>68.634140014648395</v>
+      </c>
+      <c r="C46">
+        <v>32.595237731933501</v>
+      </c>
+      <c r="D46">
+        <v>0.414277642965316</v>
+      </c>
+      <c r="E46">
+        <v>1.7097315788269001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>68.951217651367102</v>
+      </c>
+      <c r="C47">
+        <v>33.035713195800703</v>
+      </c>
+      <c r="D47">
+        <v>0.40445023775100702</v>
+      </c>
+      <c r="E47">
+        <v>1.76426613330841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>70.158531188964801</v>
+      </c>
+      <c r="C48">
+        <v>31.964286804199201</v>
+      </c>
+      <c r="D48">
+        <v>0.39969122409820501</v>
+      </c>
+      <c r="E48">
+        <v>1.7437764406204199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>70.353652954101506</v>
+      </c>
+      <c r="C49">
+        <v>32.607143402099602</v>
+      </c>
+      <c r="D49">
+        <v>0.39132338762283297</v>
+      </c>
+      <c r="E49">
+        <v>1.81213963031768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>70.609756469726506</v>
+      </c>
+      <c r="C50">
+        <v>31.880952835083001</v>
+      </c>
+      <c r="D50">
+        <v>0.38917708396911599</v>
+      </c>
+      <c r="E50">
+        <v>1.7909908294677701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>71.036582946777301</v>
+      </c>
+      <c r="C51">
+        <v>31.797618865966701</v>
+      </c>
+      <c r="D51">
+        <v>0.38355803489684998</v>
+      </c>
+      <c r="E51">
+        <v>1.80966567993164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>71.426826477050696</v>
+      </c>
+      <c r="C52">
+        <v>32.773811340332003</v>
+      </c>
+      <c r="D52">
+        <v>0.37588334083557101</v>
+      </c>
+      <c r="E52">
+        <v>1.9120556116104099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>71.243896484375</v>
+      </c>
+      <c r="C53">
+        <v>32.345237731933501</v>
+      </c>
+      <c r="D53">
+        <v>0.37449815869331299</v>
+      </c>
+      <c r="E53">
+        <v>1.8958542346954299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>72.536582946777301</v>
+      </c>
+      <c r="C54">
+        <v>33.642856597900298</v>
+      </c>
+      <c r="D54">
+        <v>0.36503362655639598</v>
+      </c>
+      <c r="E54">
+        <v>1.7625385522842401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>72.817070007324205</v>
+      </c>
+      <c r="C55">
+        <v>32.023811340332003</v>
+      </c>
+      <c r="D55">
+        <v>0.36814022064208901</v>
+      </c>
+      <c r="E55">
+        <v>1.82861363887786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>73.195121765136705</v>
+      </c>
+      <c r="C56">
+        <v>30.809524536132798</v>
+      </c>
+      <c r="D56">
+        <v>0.36038136482238697</v>
+      </c>
+      <c r="E56">
+        <v>1.9262390136718699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>73.1219482421875</v>
+      </c>
+      <c r="C57">
+        <v>31.654762268066399</v>
+      </c>
+      <c r="D57">
+        <v>0.35721063613891602</v>
+      </c>
+      <c r="E57">
+        <v>1.9428231716155999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>73.719512939453097</v>
+      </c>
+      <c r="C58">
+        <v>32.869049072265597</v>
+      </c>
+      <c r="D58">
+        <v>0.34948217868804898</v>
+      </c>
+      <c r="E58">
+        <v>1.88354933261871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>73.134140014648395</v>
+      </c>
+      <c r="C59">
+        <v>30.7857151031494</v>
+      </c>
+      <c r="D59">
+        <v>0.35009628534317</v>
+      </c>
+      <c r="E59">
+        <v>2.0013267993927002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>74.536582946777301</v>
+      </c>
+      <c r="C60">
+        <v>31.964286804199201</v>
+      </c>
+      <c r="D60">
+        <v>0.34263238310813898</v>
+      </c>
+      <c r="E60">
+        <v>1.96665835380554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>74.951217651367102</v>
+      </c>
+      <c r="C61">
+        <v>32.190475463867102</v>
+      </c>
+      <c r="D61">
+        <v>0.33871197700500399</v>
+      </c>
+      <c r="E61">
+        <v>2.0159528255462602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>74.804878234863196</v>
+      </c>
+      <c r="C62">
+        <v>31.142858505248999</v>
+      </c>
+      <c r="D62">
+        <v>0.34050452709197998</v>
+      </c>
+      <c r="E62">
+        <v>2.0106122493743799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>75.329261779785099</v>
+      </c>
+      <c r="C63">
+        <v>31.6190490722656</v>
+      </c>
+      <c r="D63">
+        <v>0.329410970211029</v>
+      </c>
+      <c r="E63">
+        <v>2.0230021476745601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>73.804878234863196</v>
+      </c>
+      <c r="C64">
+        <v>32.166667938232401</v>
+      </c>
+      <c r="D64">
+        <v>0.33306100964546198</v>
+      </c>
+      <c r="E64">
+        <v>2.0748603343963601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>76.390243530273395</v>
+      </c>
+      <c r="C65">
+        <v>34.095237731933501</v>
+      </c>
+      <c r="D65">
+        <v>0.32181581854820202</v>
+      </c>
+      <c r="E65">
+        <v>2.0711877346038801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>74.353652954101506</v>
+      </c>
+      <c r="C66">
+        <v>32.464286804199197</v>
+      </c>
+      <c r="D66">
+        <v>0.33632925152778598</v>
+      </c>
+      <c r="E66">
+        <v>2.11939120292663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>75.707313537597599</v>
+      </c>
+      <c r="C67">
+        <v>31.678571701049801</v>
+      </c>
+      <c r="D67">
+        <v>0.323988527059555</v>
+      </c>
+      <c r="E67">
+        <v>2.07218289375305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>75.695121765136705</v>
+      </c>
+      <c r="C68">
+        <v>32.404762268066399</v>
+      </c>
+      <c r="D68">
+        <v>0.321212857961654</v>
+      </c>
+      <c r="E68">
+        <v>2.1424822807311998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>77.439018249511705</v>
+      </c>
+      <c r="C69">
+        <v>31.690477371215799</v>
+      </c>
+      <c r="D69">
+        <v>0.31391957402229298</v>
+      </c>
+      <c r="E69">
+        <v>2.0915298461914</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>76.219512939453097</v>
+      </c>
+      <c r="C70">
+        <v>32.392856597900298</v>
+      </c>
+      <c r="D70">
+        <v>0.31337726116180398</v>
+      </c>
+      <c r="E70">
+        <v>2.1195313930511399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>32.761905670166001</v>
+      </c>
+      <c r="D71">
+        <v>0.29864606261253301</v>
+      </c>
+      <c r="E71">
+        <v>2.08138823509216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>76.804878234863196</v>
+      </c>
+      <c r="C72">
+        <v>31.1190490722656</v>
+      </c>
+      <c r="D72">
+        <v>0.30366840958595198</v>
+      </c>
+      <c r="E72">
+        <v>2.1453866958618102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>76.463409423828097</v>
+      </c>
+      <c r="C73">
+        <v>32.880954742431598</v>
+      </c>
+      <c r="D73">
+        <v>0.30532857775688099</v>
+      </c>
+      <c r="E73">
+        <v>2.0579245090484601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>76.097557067871094</v>
+      </c>
+      <c r="C74">
+        <v>31.178571701049801</v>
+      </c>
+      <c r="D74">
+        <v>0.30530676245689298</v>
+      </c>
+      <c r="E74">
+        <v>2.3614122867584202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>77.073165893554602</v>
+      </c>
+      <c r="C75">
+        <v>33.059524536132798</v>
+      </c>
+      <c r="D75">
+        <v>0.29933941364288302</v>
+      </c>
+      <c r="E75">
+        <v>2.07010769844055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>76.743896484375</v>
+      </c>
+      <c r="C76">
+        <v>31.404762268066399</v>
+      </c>
+      <c r="D76">
+        <v>0.29601472616195601</v>
+      </c>
+      <c r="E76">
+        <v>2.18332314491271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>77.426826477050696</v>
+      </c>
+      <c r="C77">
+        <v>32.726192474365199</v>
+      </c>
+      <c r="D77">
+        <v>0.29434111714363098</v>
+      </c>
+      <c r="E77">
+        <v>2.14281129837036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>78.743896484375</v>
+      </c>
+      <c r="C78">
+        <v>31.023809432983398</v>
+      </c>
+      <c r="D78">
+        <v>0.29338562488555903</v>
+      </c>
+      <c r="E78">
+        <v>2.2404768466949401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>78.451217651367102</v>
+      </c>
+      <c r="C79">
+        <v>32.023811340332003</v>
+      </c>
+      <c r="D79">
+        <v>0.29072201251983598</v>
+      </c>
+      <c r="E79">
+        <v>2.2723836898803702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>76.182922363281193</v>
+      </c>
+      <c r="C80">
+        <v>31.976190567016602</v>
+      </c>
+      <c r="D80">
+        <v>0.302279353141784</v>
+      </c>
+      <c r="E80">
+        <v>2.24329280853271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>77.548774719238196</v>
+      </c>
+      <c r="C81">
+        <v>33.011905670166001</v>
+      </c>
+      <c r="D81">
+        <v>0.29027524590492199</v>
+      </c>
+      <c r="E81">
+        <v>2.2058215141296298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>77.256095886230398</v>
+      </c>
+      <c r="C82">
+        <v>32.916667938232401</v>
+      </c>
+      <c r="D82">
+        <v>0.28952047228813099</v>
+      </c>
+      <c r="E82">
+        <v>2.2094740867614702</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>78.012191772460895</v>
+      </c>
+      <c r="C83">
+        <v>33.0833320617675</v>
+      </c>
+      <c r="D83">
+        <v>0.28136995434760997</v>
+      </c>
+      <c r="E83">
+        <v>2.1138250827789302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>77.548774719238196</v>
+      </c>
+      <c r="C84">
+        <v>30.559524536132798</v>
+      </c>
+      <c r="D84">
+        <v>0.28819817304611201</v>
+      </c>
+      <c r="E84">
+        <v>2.5290164947509699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>77.5</v>
+      </c>
+      <c r="C85">
+        <v>30.940477371215799</v>
+      </c>
+      <c r="D85">
+        <v>0.29302361607551503</v>
+      </c>
+      <c r="E85">
+        <v>2.3961873054504301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>78.731704711914006</v>
+      </c>
+      <c r="C86">
+        <v>30.845237731933501</v>
+      </c>
+      <c r="D86">
+        <v>0.28545409440994202</v>
+      </c>
+      <c r="E86">
+        <v>2.4779779911041202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>78.341461181640597</v>
+      </c>
+      <c r="C87">
+        <v>34.297618865966797</v>
+      </c>
+      <c r="D87">
+        <v>0.28342977166175798</v>
+      </c>
+      <c r="E87">
+        <v>2.1662228107452299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>77.975608825683594</v>
+      </c>
+      <c r="C88">
+        <v>31.142858505248999</v>
+      </c>
+      <c r="D88">
+        <v>0.28479528427124001</v>
+      </c>
+      <c r="E88">
+        <v>2.4203922748565598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>77.658531188964801</v>
+      </c>
+      <c r="C89">
+        <v>30.880952835083001</v>
+      </c>
+      <c r="D89">
+        <v>0.288251131772995</v>
+      </c>
+      <c r="E89">
+        <v>2.2271232604980402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>77.731704711914006</v>
+      </c>
+      <c r="C90">
+        <v>33</v>
+      </c>
+      <c r="D90">
+        <v>0.28711390495300199</v>
+      </c>
+      <c r="E90">
+        <v>2.18567538261413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>78.756095886230398</v>
+      </c>
+      <c r="C91">
+        <v>32.214286804199197</v>
+      </c>
+      <c r="D91">
+        <v>0.27669659256935097</v>
+      </c>
+      <c r="E91">
+        <v>2.4477150440215998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>78.231704711914006</v>
+      </c>
+      <c r="C92">
+        <v>33.023811340332003</v>
+      </c>
+      <c r="D92">
+        <v>0.28000313043594299</v>
+      </c>
+      <c r="E92">
+        <v>2.2194416522979701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>79.195121765136705</v>
+      </c>
+      <c r="C93">
+        <v>31.071428298950099</v>
+      </c>
+      <c r="D93">
+        <v>0.28089264035224898</v>
+      </c>
+      <c r="E93">
+        <v>2.3676910400390598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>78.060974121093693</v>
+      </c>
+      <c r="C94">
+        <v>31.595237731933501</v>
+      </c>
+      <c r="D94">
+        <v>0.28308278322219799</v>
+      </c>
+      <c r="E94">
+        <v>2.73177933692932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>79.243896484375</v>
+      </c>
+      <c r="C95">
+        <v>31.523809432983398</v>
+      </c>
+      <c r="D95">
+        <v>0.267253577709198</v>
+      </c>
+      <c r="E95">
+        <v>2.46107006072998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>77.219512939453097</v>
+      </c>
+      <c r="C96">
+        <v>31.273809432983398</v>
+      </c>
+      <c r="D96">
+        <v>0.28205373883247298</v>
+      </c>
+      <c r="E96">
+        <v>2.4444007873535099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>79.865852355957003</v>
+      </c>
+      <c r="C97">
+        <v>31.964286804199201</v>
+      </c>
+      <c r="D97">
+        <v>0.270075112581253</v>
+      </c>
+      <c r="E97">
+        <v>2.37485647201538</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>79.756095886230398</v>
+      </c>
+      <c r="C98">
+        <v>32.059524536132798</v>
+      </c>
+      <c r="D98">
+        <v>0.26461771130561801</v>
+      </c>
+      <c r="E98">
+        <v>2.31332159042358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>79.634140014648395</v>
+      </c>
+      <c r="C99">
+        <v>31.761905670166001</v>
+      </c>
+      <c r="D99">
+        <v>0.26718237996101302</v>
+      </c>
+      <c r="E99">
+        <v>2.5866658687591499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>78.768287658691406</v>
+      </c>
+      <c r="C100">
+        <v>31.273809432983398</v>
+      </c>
+      <c r="D100">
+        <v>0.27407160401344299</v>
+      </c>
+      <c r="E100">
+        <v>2.4590070247650102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>79.036582946777301</v>
+      </c>
+      <c r="C101">
+        <v>32.416667938232401</v>
+      </c>
+      <c r="D101">
+        <v>0.27059984207153298</v>
+      </c>
+      <c r="E101">
+        <v>2.3062078952789302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557F5C6-F7C3-2A40-891D-96BA5F29E064}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E91"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8540,16 +10524,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>24.7073154449462</v>
+        <v>22.987804412841701</v>
       </c>
       <c r="C1">
-        <v>25.365270614623999</v>
+        <v>25.297618865966701</v>
       </c>
       <c r="D1">
-        <v>0.69407898187637296</v>
+        <v>0.69533348083496005</v>
       </c>
       <c r="E1">
-        <v>1.3913315534591599</v>
+        <v>1.3888344764709399</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -8557,16 +10541,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25.6463413238525</v>
+        <v>22.512193679809499</v>
       </c>
       <c r="C2">
-        <v>23.431138992309499</v>
+        <v>24.488096237182599</v>
       </c>
       <c r="D2">
-        <v>0.69228112697601296</v>
+        <v>0.69450712203979403</v>
       </c>
       <c r="E2">
-        <v>1.3901168107986399</v>
+        <v>1.3890975713729801</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -8574,16 +10558,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29.262193679809499</v>
+        <v>23.609754562377901</v>
       </c>
       <c r="C3">
-        <v>22.251497268676701</v>
+        <v>21.3333339691162</v>
       </c>
       <c r="D3">
-        <v>0.690315842628479</v>
+        <v>0.69257336854934604</v>
       </c>
       <c r="E3">
-        <v>1.3906338214874201</v>
+        <v>1.38941550254821</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8591,16 +10575,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>31.493902206420898</v>
+        <v>29.182926177978501</v>
       </c>
       <c r="C4">
-        <v>22.4071865081787</v>
+        <v>21.892856597900298</v>
       </c>
       <c r="D4">
-        <v>0.688160359859466</v>
+        <v>0.69023412466049106</v>
       </c>
       <c r="E4">
-        <v>1.3917754888534499</v>
+        <v>1.39033579826354</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8608,16 +10592,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>32.445121765136697</v>
+        <v>33.8536567687988</v>
       </c>
       <c r="C5">
-        <v>23.3772468566894</v>
+        <v>22.3333339691162</v>
       </c>
       <c r="D5">
-        <v>0.68462008237838701</v>
+        <v>0.68705421686172397</v>
       </c>
       <c r="E5">
-        <v>1.3937170505523599</v>
+        <v>1.39175033569335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8625,16 +10609,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33.396339416503899</v>
+        <v>35.573169708251903</v>
       </c>
       <c r="C6">
-        <v>24.113773345947202</v>
+        <v>23.047618865966701</v>
       </c>
       <c r="D6">
-        <v>0.68234181404113703</v>
+        <v>0.68393325805663996</v>
       </c>
       <c r="E6">
-        <v>1.3954260349273599</v>
+        <v>1.39358341693878</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -8642,16 +10626,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34.182926177978501</v>
+        <v>37.439022064208899</v>
       </c>
       <c r="C7">
-        <v>22.820360183715799</v>
+        <v>22.309524536132798</v>
       </c>
       <c r="D7">
-        <v>0.67867583036422696</v>
+        <v>0.67984580993652299</v>
       </c>
       <c r="E7">
-        <v>1.4056481122970499</v>
+        <v>1.39598989486694</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -8659,16 +10643,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34.932926177978501</v>
+        <v>37.548778533935497</v>
       </c>
       <c r="C8">
-        <v>23.347307205200099</v>
+        <v>22.380952835083001</v>
       </c>
       <c r="D8">
-        <v>0.67488753795623702</v>
+        <v>0.67592215538024902</v>
       </c>
       <c r="E8">
-        <v>1.40547275543212</v>
+        <v>1.3990794420242301</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8676,16 +10660,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>35.689022064208899</v>
+        <v>41.426826477050703</v>
       </c>
       <c r="C9">
-        <v>23.1377258300781</v>
+        <v>22.654762268066399</v>
       </c>
       <c r="D9">
-        <v>0.67082029581069902</v>
+        <v>0.67126381397247303</v>
       </c>
       <c r="E9">
-        <v>1.41097724437713</v>
+        <v>1.40090095996856</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -8693,16 +10677,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37.5609741210937</v>
+        <v>41.475608825683501</v>
       </c>
       <c r="C10">
-        <v>22.712575912475501</v>
+        <v>23.273809432983398</v>
       </c>
       <c r="D10">
-        <v>0.66342771053314198</v>
+        <v>0.667011678218841</v>
       </c>
       <c r="E10">
-        <v>1.4307551383972099</v>
+        <v>1.40469658374786</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -8710,16 +10694,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>37.670730590820298</v>
+        <v>40.865852355957003</v>
       </c>
       <c r="C11">
-        <v>22.497007369995099</v>
+        <v>23.226190567016602</v>
       </c>
       <c r="D11">
-        <v>0.66224926710128695</v>
+        <v>0.66206604242324796</v>
       </c>
       <c r="E11">
-        <v>1.4438620805740301</v>
+        <v>1.41046249866485</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8727,16 +10711,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37.426826477050703</v>
+        <v>42.439022064208899</v>
       </c>
       <c r="C12">
-        <v>23.0718574523925</v>
+        <v>24.130952835083001</v>
       </c>
       <c r="D12">
-        <v>0.65670496225357</v>
+        <v>0.65667313337326005</v>
       </c>
       <c r="E12">
-        <v>1.4544694423675499</v>
+        <v>1.4124954938888501</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8744,16 +10728,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37.451217651367102</v>
+        <v>45.4146308898925</v>
       </c>
       <c r="C13">
-        <v>23.089820861816399</v>
+        <v>23.845237731933501</v>
       </c>
       <c r="D13">
-        <v>0.65232795476913397</v>
+        <v>0.65100347995758001</v>
       </c>
       <c r="E13">
-        <v>1.4841948747634801</v>
+        <v>1.4175158739089899</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8761,16 +10745,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>38.012195587158203</v>
+        <v>44.658535003662102</v>
       </c>
       <c r="C14">
-        <v>23.389223098754801</v>
+        <v>25.0833339691162</v>
       </c>
       <c r="D14">
-        <v>0.64949631690979004</v>
+        <v>0.64619696140289296</v>
       </c>
       <c r="E14">
-        <v>1.4872730970382599</v>
+        <v>1.4221950769424401</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8778,16 +10762,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41.1646308898925</v>
+        <v>47.0609741210937</v>
       </c>
       <c r="C15">
-        <v>22.8682651519775</v>
+        <v>24.7023811340332</v>
       </c>
       <c r="D15">
-        <v>0.639265596866607</v>
+        <v>0.63992846012115401</v>
       </c>
       <c r="E15">
-        <v>1.53661131858825</v>
+        <v>1.42488825321197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8795,16 +10779,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>41.1219482421875</v>
+        <v>46.439022064208899</v>
       </c>
       <c r="C16">
-        <v>23.706586837768501</v>
+        <v>25.226190567016602</v>
       </c>
       <c r="D16">
-        <v>0.634330093860626</v>
+        <v>0.63255208730697599</v>
       </c>
       <c r="E16">
-        <v>1.54905700683593</v>
+        <v>1.4292681217193599</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8812,16 +10796,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>43.140243530273402</v>
+        <v>46.841461181640597</v>
       </c>
       <c r="C17">
-        <v>24.335330963134702</v>
+        <v>27.4523811340332</v>
       </c>
       <c r="D17">
-        <v>0.62823575735092096</v>
+        <v>0.626492500305175</v>
       </c>
       <c r="E17">
-        <v>1.5847810506820601</v>
+        <v>1.43428254127502</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -8829,16 +10813,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>43.3719482421875</v>
+        <v>47.5609741210937</v>
       </c>
       <c r="C18">
-        <v>23.3053894042968</v>
+        <v>26.2023811340332</v>
       </c>
       <c r="D18">
-        <v>0.62231969833374001</v>
+        <v>0.61956238746643</v>
       </c>
       <c r="E18">
-        <v>1.64183461666107</v>
+        <v>1.4421203136444001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -8846,16 +10830,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>43.890243530273402</v>
+        <v>47.768291473388601</v>
       </c>
       <c r="C19">
-        <v>24.652694702148398</v>
+        <v>28.416667938232401</v>
       </c>
       <c r="D19">
-        <v>0.61448371410369795</v>
+        <v>0.61411398649215698</v>
       </c>
       <c r="E19">
-        <v>1.64817702770233</v>
+        <v>1.44182705879211</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -8863,16 +10847,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45.939022064208899</v>
+        <v>49.8536567687988</v>
       </c>
       <c r="C20">
-        <v>25.1017971038818</v>
+        <v>28.511905670166001</v>
       </c>
       <c r="D20">
-        <v>0.60694628953933705</v>
+        <v>0.60551917552947998</v>
       </c>
       <c r="E20">
-        <v>1.6673568487167301</v>
+        <v>1.4492218494415201</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -8880,16 +10864,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45.463413238525298</v>
+        <v>51.670730590820298</v>
       </c>
       <c r="C21">
-        <v>23.6287441253662</v>
+        <v>28.25</v>
       </c>
       <c r="D21">
-        <v>0.60315352678298895</v>
+        <v>0.59776920080184903</v>
       </c>
       <c r="E21">
-        <v>1.7268157005310001</v>
+        <v>1.4547346830368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -8897,16 +10881,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>47.756095886230398</v>
+        <v>53.256095886230398</v>
       </c>
       <c r="C22">
-        <v>25.688623428344702</v>
+        <v>29.2857151031494</v>
       </c>
       <c r="D22">
-        <v>0.59195476770401001</v>
+        <v>0.58971124887466397</v>
       </c>
       <c r="E22">
-        <v>1.74893033504486</v>
+        <v>1.4612998962402299</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -8914,16 +10898,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48.774387359619098</v>
+        <v>53.219509124755803</v>
       </c>
       <c r="C23">
-        <v>25.125749588012599</v>
+        <v>29.2857151031494</v>
       </c>
       <c r="D23">
-        <v>0.58672314882278398</v>
+        <v>0.58197677135467496</v>
       </c>
       <c r="E23">
-        <v>1.8886864185333201</v>
+        <v>1.4768916368484399</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8931,16 +10915,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>48.3109741210937</v>
+        <v>53.719509124755803</v>
       </c>
       <c r="C24">
-        <v>25.1017971038818</v>
+        <v>29.428571701049801</v>
       </c>
       <c r="D24">
-        <v>0.58157759904861395</v>
+        <v>0.57437282800674405</v>
       </c>
       <c r="E24">
-        <v>1.7947348356246899</v>
+        <v>1.47130155563354</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -8948,16 +10932,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>50.939022064208899</v>
+        <v>55.243900299072202</v>
       </c>
       <c r="C25">
-        <v>25.131736755371001</v>
+        <v>30.059524536132798</v>
       </c>
       <c r="D25">
-        <v>0.573963522911071</v>
+        <v>0.56305605173110895</v>
       </c>
       <c r="E25">
-        <v>1.8904736042022701</v>
+        <v>1.48552870750427</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -8965,16 +10949,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>51.829265594482401</v>
+        <v>54.487804412841797</v>
       </c>
       <c r="C26">
-        <v>24.898204803466701</v>
+        <v>29.6190490722656</v>
       </c>
       <c r="D26">
-        <v>0.56413650512695301</v>
+        <v>0.55665040016174305</v>
       </c>
       <c r="E26">
-        <v>1.89537978172302</v>
+        <v>1.50613212585449</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -8982,16 +10966,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>50.682926177978501</v>
+        <v>56.304874420166001</v>
       </c>
       <c r="C27">
-        <v>25.215570449829102</v>
+        <v>30.559524536132798</v>
       </c>
       <c r="D27">
-        <v>0.56344783306121804</v>
+        <v>0.54908478260040205</v>
       </c>
       <c r="E27">
-        <v>2.0137014389038002</v>
+        <v>1.5037585496902399</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -8999,16 +10983,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>51.865852355957003</v>
+        <v>57.268291473388601</v>
       </c>
       <c r="C28">
-        <v>24.7485046386718</v>
+        <v>30.011905670166001</v>
       </c>
       <c r="D28">
-        <v>0.55500525236129705</v>
+        <v>0.54151469469070401</v>
       </c>
       <c r="E28">
-        <v>2.08548736572265</v>
+        <v>1.5238338708877499</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -9016,16 +11000,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>53.390243530273402</v>
+        <v>57.682926177978501</v>
       </c>
       <c r="C29">
-        <v>24.754491806030199</v>
+        <v>31.273809432983398</v>
       </c>
       <c r="D29">
-        <v>0.54847085475921598</v>
+        <v>0.53440576791763295</v>
       </c>
       <c r="E29">
-        <v>2.1432530879974299</v>
+        <v>1.5352915525436399</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -9033,16 +11017,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>55.262191772460902</v>
+        <v>58.792678833007798</v>
       </c>
       <c r="C30">
-        <v>27.353294372558501</v>
+        <v>31.142858505248999</v>
       </c>
       <c r="D30">
-        <v>0.54109871387481601</v>
+        <v>0.52373886108398404</v>
       </c>
       <c r="E30">
-        <v>2.0627782344818102</v>
+        <v>1.54278516769409</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -9050,16 +11034,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>55.670730590820298</v>
+        <v>59.8536567687988</v>
       </c>
       <c r="C31">
-        <v>24.844312667846602</v>
+        <v>31.5357151031494</v>
       </c>
       <c r="D31">
-        <v>0.531344413757324</v>
+        <v>0.51644313335418701</v>
       </c>
       <c r="E31">
-        <v>2.2406837940215998</v>
+        <v>1.54325783252716</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -9067,16 +11051,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>55.609752655029297</v>
+        <v>59.768291473388601</v>
       </c>
       <c r="C32">
-        <v>24.083833694458001</v>
+        <v>30.559524536132798</v>
       </c>
       <c r="D32">
-        <v>0.52842271327972401</v>
+        <v>0.50894838571548395</v>
       </c>
       <c r="E32">
-        <v>2.2746415138244598</v>
+        <v>1.5537307262420601</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -9084,16 +11068,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>55.6646308898925</v>
+        <v>60.804874420166001</v>
       </c>
       <c r="C33">
-        <v>26.449102401733398</v>
+        <v>31.071428298950099</v>
       </c>
       <c r="D33">
-        <v>0.520247042179107</v>
+        <v>0.50119507312774603</v>
       </c>
       <c r="E33">
-        <v>2.26891613006591</v>
+        <v>1.5734322071075399</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -9101,16 +11085,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>57.737804412841797</v>
+        <v>61.365852355957003</v>
       </c>
       <c r="C34">
-        <v>26.311378479003899</v>
+        <v>31.345237731933501</v>
       </c>
       <c r="D34">
-        <v>0.51407319307327204</v>
+        <v>0.49112755060195901</v>
       </c>
       <c r="E34">
-        <v>2.3882210254669101</v>
+        <v>1.57361459732055</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -9118,16 +11102,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>57.042682647705</v>
+        <v>61.292678833007798</v>
       </c>
       <c r="C35">
-        <v>26.1077861785888</v>
+        <v>31.238096237182599</v>
       </c>
       <c r="D35">
-        <v>0.51021683216094904</v>
+        <v>0.48345911502838101</v>
       </c>
       <c r="E35">
-        <v>2.2134156227111799</v>
+        <v>1.6323450803756701</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -9135,16 +11119,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>57.707313537597599</v>
+        <v>62.463413238525298</v>
       </c>
       <c r="C36">
-        <v>25.4071865081787</v>
+        <v>31.297618865966701</v>
       </c>
       <c r="D36">
-        <v>0.50811254978179898</v>
+        <v>0.47658416628837502</v>
       </c>
       <c r="E36">
-        <v>2.2772843837738002</v>
+        <v>1.61034619808197</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -9152,16 +11136,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>58.451217651367102</v>
+        <v>63.682926177978501</v>
       </c>
       <c r="C37">
-        <v>25.9880256652832</v>
+        <v>32.559524536132798</v>
       </c>
       <c r="D37">
-        <v>0.49875786900520303</v>
+        <v>0.46518468856811501</v>
       </c>
       <c r="E37">
-        <v>2.9064157009124698</v>
+        <v>1.6450070142745901</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -9169,16 +11153,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>59.445117950439403</v>
+        <v>63.597557067871001</v>
       </c>
       <c r="C38">
-        <v>26.431138992309499</v>
+        <v>32.107143402099602</v>
       </c>
       <c r="D38">
-        <v>0.49018782377242998</v>
+        <v>0.47020360827445901</v>
       </c>
       <c r="E38">
-        <v>2.7101418972015301</v>
+        <v>1.6266447305679299</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -9186,16 +11170,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>59.646339416503899</v>
+        <v>65.963409423828097</v>
       </c>
       <c r="C39">
-        <v>26.149702072143501</v>
+        <v>31.392858505248999</v>
       </c>
       <c r="D39">
-        <v>0.48599129915237399</v>
+        <v>0.45313504338264399</v>
       </c>
       <c r="E39">
-        <v>2.7179510593414302</v>
+        <v>1.6956973075866699</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -9203,16 +11187,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>61.506095886230398</v>
+        <v>65.134147644042898</v>
       </c>
       <c r="C40">
-        <v>26.694612503051701</v>
+        <v>32.238094329833899</v>
       </c>
       <c r="D40">
-        <v>0.484393030405044</v>
+        <v>0.44810461997985801</v>
       </c>
       <c r="E40">
-        <v>2.70161652565002</v>
+        <v>1.6852904558181701</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -9220,16 +11204,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>60.585365295410099</v>
+        <v>65.5</v>
       </c>
       <c r="C41">
-        <v>25.694612503051701</v>
+        <v>31.380952835083001</v>
       </c>
       <c r="D41">
-        <v>0.47869998216629001</v>
+        <v>0.44161614775657598</v>
       </c>
       <c r="E41">
-        <v>2.8246257305145201</v>
+        <v>1.6815272569656301</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -9237,16 +11221,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>61.085365295410099</v>
+        <v>67.207313537597599</v>
       </c>
       <c r="C42">
-        <v>24.712575912475501</v>
+        <v>32.404762268066399</v>
       </c>
       <c r="D42">
-        <v>0.47851189970970098</v>
+        <v>0.43050950765609702</v>
       </c>
       <c r="E42">
-        <v>2.8171873092651301</v>
+        <v>1.6610144376754701</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -9254,16 +11238,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>62.3536567687988</v>
+        <v>66.780487060546804</v>
       </c>
       <c r="C43">
-        <v>25.7305393218994</v>
+        <v>31.142858505248999</v>
       </c>
       <c r="D43">
-        <v>0.47168231010437001</v>
+        <v>0.42613306641578602</v>
       </c>
       <c r="E43">
-        <v>2.98336458206176</v>
+        <v>1.7173933982849099</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -9271,16 +11255,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>62.207313537597599</v>
+        <v>67.829269409179602</v>
       </c>
       <c r="C44">
-        <v>26.011976242065401</v>
+        <v>32.8333320617675</v>
       </c>
       <c r="D44">
-        <v>0.46681582927703802</v>
+        <v>0.42307871580123901</v>
       </c>
       <c r="E44">
-        <v>2.7322759628295898</v>
+        <v>1.7233867645263601</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -9288,16 +11272,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>62.713413238525298</v>
+        <v>68.170730590820298</v>
       </c>
       <c r="C45">
-        <v>25.538923263549801</v>
+        <v>33.047618865966797</v>
       </c>
       <c r="D45">
-        <v>0.45818081498146002</v>
+        <v>0.417546987533569</v>
       </c>
       <c r="E45">
-        <v>3.4614174365997301</v>
+        <v>1.72125339508056</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -9305,16 +11289,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>63.054874420166001</v>
+        <v>69.926826477050696</v>
       </c>
       <c r="C46">
-        <v>25.550899505615199</v>
+        <v>32.761905670166001</v>
       </c>
       <c r="D46">
-        <v>0.46134138107299799</v>
+        <v>0.40711537003517101</v>
       </c>
       <c r="E46">
-        <v>3.1542170047760001</v>
+        <v>1.75187635421752</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -9322,16 +11306,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>62.3109741210937</v>
+        <v>68.634140014648395</v>
       </c>
       <c r="C47">
-        <v>24.598802566528299</v>
+        <v>32.428573608398402</v>
       </c>
       <c r="D47">
-        <v>0.46411922574043202</v>
+        <v>0.402575463056564</v>
       </c>
       <c r="E47">
-        <v>3.0049266815185498</v>
+        <v>1.7559622526168801</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -9339,16 +11323,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>62.262191772460902</v>
+        <v>69.878044128417898</v>
       </c>
       <c r="C48">
-        <v>25.3592815399169</v>
+        <v>32.964286804199197</v>
       </c>
       <c r="D48">
-        <v>0.45363444089889499</v>
+        <v>0.39741778373718201</v>
       </c>
       <c r="E48">
-        <v>2.9408648014068599</v>
+        <v>1.7750496864318801</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -9356,16 +11340,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>64.414634704589801</v>
+        <v>70.573165893554602</v>
       </c>
       <c r="C49">
-        <v>25.443115234375</v>
+        <v>32.607143402099602</v>
       </c>
       <c r="D49">
-        <v>0.45255813002586298</v>
+        <v>0.38773369789123502</v>
       </c>
       <c r="E49">
-        <v>3.3472580909728999</v>
+        <v>1.76807820796966</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -9373,16 +11357,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>63.512191772460902</v>
+        <v>70.634140014648395</v>
       </c>
       <c r="C50">
-        <v>25.826347351074201</v>
+        <v>31.047618865966701</v>
       </c>
       <c r="D50">
-        <v>0.45519822835922202</v>
+        <v>0.385755956172943</v>
       </c>
       <c r="E50">
-        <v>3.0090949535369802</v>
+        <v>1.8180295228958101</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -9390,16 +11374,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>64.390243530273395</v>
+        <v>71.731704711914006</v>
       </c>
       <c r="C51">
-        <v>26.778444290161101</v>
+        <v>33.142856597900298</v>
       </c>
       <c r="D51">
-        <v>0.44211575388908297</v>
+        <v>0.376893550157547</v>
       </c>
       <c r="E51">
-        <v>2.7699491977691602</v>
+        <v>1.9136096239089899</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -9407,16 +11391,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>65.091461181640597</v>
+        <v>71.207313537597599</v>
       </c>
       <c r="C52">
-        <v>25.479042053222599</v>
+        <v>32.297618865966797</v>
       </c>
       <c r="D52">
-        <v>0.44479572772979697</v>
+        <v>0.37917572259902899</v>
       </c>
       <c r="E52">
-        <v>2.7967662811279199</v>
+        <v>1.91249310970306</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -9424,16 +11408,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>64.609756469726506</v>
+        <v>71.890243530273395</v>
       </c>
       <c r="C53">
-        <v>25.2574863433837</v>
+        <v>32.940475463867102</v>
       </c>
       <c r="D53">
-        <v>0.44090926647186202</v>
+        <v>0.37031593918800298</v>
       </c>
       <c r="E53">
-        <v>3.0253312587738002</v>
+        <v>1.75421595573425</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -9441,16 +11425,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>64.890243530273395</v>
+        <v>72.451217651367102</v>
       </c>
       <c r="C54">
-        <v>25.910181045532202</v>
+        <v>31.976190567016602</v>
       </c>
       <c r="D54">
-        <v>0.439308851957321</v>
+        <v>0.36876627802848799</v>
       </c>
       <c r="E54">
-        <v>3.0331926345825102</v>
+        <v>1.8356963396072301</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -9458,16 +11442,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>64.798774719238196</v>
+        <v>73.317070007324205</v>
       </c>
       <c r="C55">
-        <v>24.964073181152301</v>
+        <v>31.226190567016602</v>
       </c>
       <c r="D55">
-        <v>0.43697565793991</v>
+        <v>0.35766449570655801</v>
       </c>
       <c r="E55">
-        <v>3.3436682224273602</v>
+        <v>1.9193922281265201</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -9475,16 +11459,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>65.189018249511705</v>
+        <v>72.792678833007798</v>
       </c>
       <c r="C56">
-        <v>25.473054885864201</v>
+        <v>31.976190567016602</v>
       </c>
       <c r="D56">
-        <v>0.432375907897949</v>
+        <v>0.35877597332000699</v>
       </c>
       <c r="E56">
-        <v>3.15142726898193</v>
+        <v>1.9038175344467101</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -9492,16 +11476,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>66.323165893554602</v>
+        <v>73.804878234863196</v>
       </c>
       <c r="C57">
-        <v>25.778444290161101</v>
+        <v>33.440475463867102</v>
       </c>
       <c r="D57">
-        <v>0.42646184563636702</v>
+        <v>0.35268029570579501</v>
       </c>
       <c r="E57">
-        <v>2.8232669830322199</v>
+        <v>1.85002470016479</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -9509,16 +11493,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>66.402435302734304</v>
+        <v>74.036582946777301</v>
       </c>
       <c r="C58">
-        <v>27.143712997436499</v>
+        <v>31.380952835083001</v>
       </c>
       <c r="D58">
-        <v>0.43039157986640902</v>
+        <v>0.34175503253936701</v>
       </c>
       <c r="E58">
-        <v>2.6754808425903298</v>
+        <v>1.9586884975433301</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9526,16 +11510,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>64.664634704589801</v>
+        <v>74.768287658691406</v>
       </c>
       <c r="C59">
-        <v>25.467067718505799</v>
+        <v>30.75</v>
       </c>
       <c r="D59">
-        <v>0.42645156383514399</v>
+        <v>0.33814123272895802</v>
       </c>
       <c r="E59">
-        <v>2.96368408203125</v>
+        <v>1.9711822271346999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -9543,16 +11527,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>67.585365295410099</v>
+        <v>74.158531188964801</v>
       </c>
       <c r="C60">
-        <v>24.994012832641602</v>
+        <v>31.523809432983398</v>
       </c>
       <c r="D60">
-        <v>0.41407436132431003</v>
+        <v>0.34534367918968201</v>
       </c>
       <c r="E60">
-        <v>3.5480098724365199</v>
+        <v>2.0148115158081001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -9560,16 +11544,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>65.713409423828097</v>
+        <v>74.475608825683594</v>
       </c>
       <c r="C61">
-        <v>25.856288909912099</v>
+        <v>30.916667938232401</v>
       </c>
       <c r="D61">
-        <v>0.42035239934921198</v>
+        <v>0.34037134051322898</v>
       </c>
       <c r="E61">
-        <v>3.1242403984069802</v>
+        <v>2.0290229320526101</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9577,16 +11561,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>66.518287658691406</v>
+        <v>74.195121765136705</v>
       </c>
       <c r="C62">
-        <v>24.658683776855401</v>
+        <v>32.535713195800703</v>
       </c>
       <c r="D62">
-        <v>0.41605004668235701</v>
+        <v>0.33569082617759699</v>
       </c>
       <c r="E62">
-        <v>3.8070909976959202</v>
+        <v>1.984748005867</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9594,16 +11578,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>67.060974121093693</v>
+        <v>75.6219482421875</v>
       </c>
       <c r="C63">
-        <v>25.083833694458001</v>
+        <v>32.654762268066399</v>
       </c>
       <c r="D63">
-        <v>0.40703579783439597</v>
+        <v>0.33065459132194502</v>
       </c>
       <c r="E63">
-        <v>3.4684653282165501</v>
+        <v>2.03582763671875</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9611,16 +11595,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>67.628044128417898</v>
+        <v>75.365852355957003</v>
       </c>
       <c r="C64">
-        <v>24.784431457519499</v>
+        <v>33.511905670166001</v>
       </c>
       <c r="D64">
-        <v>0.401586323976516</v>
+        <v>0.32482543587684598</v>
       </c>
       <c r="E64">
-        <v>3.5887901782989502</v>
+        <v>2.0562505722045898</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -9628,16 +11612,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>66.939018249511705</v>
+        <v>75.329261779785099</v>
       </c>
       <c r="C65">
-        <v>25.2395210266113</v>
+        <v>33.297618865966797</v>
       </c>
       <c r="D65">
-        <v>0.41212663054466198</v>
+        <v>0.334503263235092</v>
       </c>
       <c r="E65">
-        <v>3.3366835117339999</v>
+        <v>2.1045734882354701</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -9645,16 +11629,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>67.25</v>
+        <v>75.219512939453097</v>
       </c>
       <c r="C66">
-        <v>25.3053894042968</v>
+        <v>31.857143402099599</v>
       </c>
       <c r="D66">
-        <v>0.40616419911384499</v>
+        <v>0.32914912700652998</v>
       </c>
       <c r="E66">
-        <v>3.1462512016296298</v>
+        <v>2.03540611267089</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -9662,16 +11646,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>68.201217651367102</v>
+        <v>75.914634704589801</v>
       </c>
       <c r="C67">
-        <v>25.712575912475501</v>
+        <v>31.595237731933501</v>
       </c>
       <c r="D67">
-        <v>0.40472224354743902</v>
+        <v>0.32105165719985901</v>
       </c>
       <c r="E67">
-        <v>3.5440466403961102</v>
+        <v>2.1588437557220401</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -9679,16 +11663,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>68.689018249511705</v>
+        <v>76.817070007324205</v>
       </c>
       <c r="C68">
-        <v>24.910181045532202</v>
+        <v>30.845237731933501</v>
       </c>
       <c r="D68">
-        <v>0.39919036626815702</v>
+        <v>0.31792682409286499</v>
       </c>
       <c r="E68">
-        <v>3.2894613742828298</v>
+        <v>2.1303629875183101</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -9696,16 +11680,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>69.896339416503906</v>
+        <v>76.414634704589801</v>
       </c>
       <c r="C69">
-        <v>24.760480880737301</v>
+        <v>31.880952835083001</v>
       </c>
       <c r="D69">
-        <v>0.38850584626197798</v>
+        <v>0.31652334332466098</v>
       </c>
       <c r="E69">
-        <v>3.6034970283508301</v>
+        <v>2.12354183197021</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -9713,16 +11697,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>70.353652954101506</v>
+        <v>76.573165893554602</v>
       </c>
       <c r="C70">
-        <v>25.1736545562744</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>0.38469231128692599</v>
+        <v>0.305407345294952</v>
       </c>
       <c r="E70">
-        <v>3.3981032371520898</v>
+        <v>2.0491261482238698</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -9730,16 +11714,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>70.560974121093693</v>
+        <v>76.085365295410099</v>
       </c>
       <c r="C71">
-        <v>24.796407699584901</v>
+        <v>32.059524536132798</v>
       </c>
       <c r="D71">
-        <v>0.37821093201637201</v>
+        <v>0.30540370941162098</v>
       </c>
       <c r="E71">
-        <v>3.4557404518127401</v>
+        <v>2.08380079269409</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -9747,16 +11731,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>70.012191772460895</v>
+        <v>77.280487060546804</v>
       </c>
       <c r="C72">
-        <v>24.497007369995099</v>
+        <v>33.392856597900298</v>
       </c>
       <c r="D72">
-        <v>0.380923271179199</v>
+        <v>0.30086293816566401</v>
       </c>
       <c r="E72">
-        <v>4.3002834320068297</v>
+        <v>2.05174684524536</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -9764,16 +11748,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>70.963409423828097</v>
+        <v>77.109756469726506</v>
       </c>
       <c r="C73">
-        <v>24.688623428344702</v>
+        <v>30.416667938232401</v>
       </c>
       <c r="D73">
-        <v>0.37189233303070002</v>
+        <v>0.30292192101478499</v>
       </c>
       <c r="E73">
-        <v>4.2543582916259703</v>
+        <v>2.2777857780456499</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -9781,16 +11765,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>70.317070007324205</v>
+        <v>77.414634704589801</v>
       </c>
       <c r="C74">
-        <v>24.964073181152301</v>
+        <v>32.666667938232401</v>
       </c>
       <c r="D74">
-        <v>0.38029175996780301</v>
+        <v>0.30180972814559898</v>
       </c>
       <c r="E74">
-        <v>4.2165532112121502</v>
+        <v>2.0675671100616402</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -9798,16 +11782,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>70.408531188964801</v>
+        <v>76.902435302734304</v>
       </c>
       <c r="C75">
-        <v>27.556886672973601</v>
+        <v>30.845237731933501</v>
       </c>
       <c r="D75">
-        <v>0.38084781169891302</v>
+        <v>0.29710209369659402</v>
       </c>
       <c r="E75">
-        <v>3.3583178520202601</v>
+        <v>2.2995760440826398</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -9815,16 +11799,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>72.243896484375</v>
+        <v>77.341461181640597</v>
       </c>
       <c r="C76">
-        <v>25.904191970825099</v>
+        <v>31.916667938232401</v>
       </c>
       <c r="D76">
-        <v>0.36228969693183899</v>
+        <v>0.29772487282752902</v>
       </c>
       <c r="E76">
-        <v>3.7013142108917201</v>
+        <v>2.17264723777771</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -9832,16 +11816,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>71.189018249511705</v>
+        <v>77.670730590820298</v>
       </c>
       <c r="C77">
-        <v>25.850299835205</v>
+        <v>30.261905670166001</v>
       </c>
       <c r="D77">
-        <v>0.36639520525932301</v>
+        <v>0.299506485462188</v>
       </c>
       <c r="E77">
-        <v>3.07607698440551</v>
+        <v>2.32987213134765</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -9849,16 +11833,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>72.262191772460895</v>
+        <v>77.524383544921804</v>
       </c>
       <c r="C78">
-        <v>26.179641723632798</v>
+        <v>31.738096237182599</v>
       </c>
       <c r="D78">
-        <v>0.35581195354461598</v>
+        <v>0.29452851414680398</v>
       </c>
       <c r="E78">
-        <v>3.7898185253143302</v>
+        <v>2.2237036228179901</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -9866,16 +11850,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>71.579269409179602</v>
+        <v>76.719512939453097</v>
       </c>
       <c r="C79">
-        <v>27.131736755371001</v>
+        <v>31.892858505248999</v>
       </c>
       <c r="D79">
-        <v>0.36371639370918202</v>
+        <v>0.29797831177711398</v>
       </c>
       <c r="E79">
-        <v>3.63780665397644</v>
+        <v>2.2614350318908598</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -9883,16 +11867,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>72.695121765136705</v>
+        <v>77.390243530273395</v>
       </c>
       <c r="C80">
-        <v>25.125749588012599</v>
+        <v>32.797618865966797</v>
       </c>
       <c r="D80">
-        <v>0.35690340399742099</v>
+        <v>0.29151058197021401</v>
       </c>
       <c r="E80">
-        <v>4.1664080619812003</v>
+        <v>2.1984543800353999</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -9900,16 +11884,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>71.524391174316406</v>
+        <v>77.512191772460895</v>
       </c>
       <c r="C81">
-        <v>25.856288909912099</v>
+        <v>31.2857151031494</v>
       </c>
       <c r="D81">
-        <v>0.35974159836769098</v>
+        <v>0.29165059328079201</v>
       </c>
       <c r="E81">
-        <v>3.85595273971557</v>
+        <v>2.28326392173767</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -9917,16 +11901,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>72.292678833007798</v>
+        <v>78.158531188964801</v>
       </c>
       <c r="C82">
-        <v>26.011976242065401</v>
+        <v>32.464286804199197</v>
       </c>
       <c r="D82">
-        <v>0.35746476054191501</v>
+        <v>0.282202959060668</v>
       </c>
       <c r="E82">
-        <v>3.75832748413085</v>
+        <v>2.1502733230590798</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -9934,16 +11918,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>72.164634704589801</v>
+        <v>79.109756469726506</v>
       </c>
       <c r="C83">
-        <v>25.0359287261962</v>
+        <v>29.559524536132798</v>
       </c>
       <c r="D83">
-        <v>0.35489431023597701</v>
+        <v>0.28180143237113903</v>
       </c>
       <c r="E83">
-        <v>3.8929359912872301</v>
+        <v>2.58546686172485</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -9951,16 +11935,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>72.274391174316406</v>
+        <v>78.243896484375</v>
       </c>
       <c r="C84">
-        <v>26.1556892395019</v>
+        <v>30.309524536132798</v>
       </c>
       <c r="D84">
-        <v>0.35309934616088801</v>
+        <v>0.28447595238685602</v>
       </c>
       <c r="E84">
-        <v>4.4235644340515101</v>
+        <v>2.5651183128356898</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -9968,16 +11952,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>73.628044128417898</v>
+        <v>79.231704711914006</v>
       </c>
       <c r="C85">
-        <v>25.0538940429687</v>
+        <v>30.488096237182599</v>
       </c>
       <c r="D85">
-        <v>0.34767031669616699</v>
+        <v>0.27580597996711698</v>
       </c>
       <c r="E85">
-        <v>4.74015140533447</v>
+        <v>2.5746426582336399</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -9985,16 +11969,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>72.091461181640597</v>
+        <v>78.414634704589801</v>
       </c>
       <c r="C86">
-        <v>25.497007369995099</v>
+        <v>33.261905670166001</v>
       </c>
       <c r="D86">
-        <v>0.35064059495925898</v>
+        <v>0.28506225347518899</v>
       </c>
       <c r="E86">
-        <v>4.2916960716247496</v>
+        <v>2.2465488910675</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -10002,16 +11986,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>73.347557067871094</v>
+        <v>77.548774719238196</v>
       </c>
       <c r="C87">
-        <v>24.293413162231399</v>
+        <v>29.964286804199201</v>
       </c>
       <c r="D87">
-        <v>0.34868332743644698</v>
+        <v>0.27999526262283297</v>
       </c>
       <c r="E87">
-        <v>3.8454051017761199</v>
+        <v>2.5835447311401301</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -10019,16 +12003,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>72.487800598144503</v>
+        <v>78.902435302734304</v>
       </c>
       <c r="C88">
-        <v>26.772455215454102</v>
+        <v>30.75</v>
       </c>
       <c r="D88">
-        <v>0.34937772154808</v>
+        <v>0.28439426422119102</v>
       </c>
       <c r="E88">
-        <v>4.1016278266906703</v>
+        <v>2.2820470333099299</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -10036,16 +12020,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>73.109756469726506</v>
+        <v>78.012191772460895</v>
       </c>
       <c r="C89">
-        <v>25.8023967742919</v>
+        <v>31.8690490722656</v>
       </c>
       <c r="D89">
-        <v>0.35218340158462502</v>
+        <v>0.28818142414093001</v>
       </c>
       <c r="E89">
-        <v>4.4023203849792401</v>
+        <v>2.3363554477691602</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -10053,16 +12037,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>73.664634704589801</v>
+        <v>80.1219482421875</v>
       </c>
       <c r="C90">
-        <v>27.179641723632798</v>
+        <v>32.035713195800703</v>
       </c>
       <c r="D90">
-        <v>0.342809438705444</v>
+        <v>0.27112209796905501</v>
       </c>
       <c r="E90">
-        <v>4.2540831565856898</v>
+        <v>2.5188779830932599</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -10070,1170 +12054,169 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>74.1219482421875</v>
+        <v>79.402435302734304</v>
       </c>
       <c r="C91">
-        <v>25.3413181304931</v>
+        <v>32.119049072265597</v>
       </c>
       <c r="D91">
-        <v>0.34317058324813798</v>
+        <v>0.27562421560287398</v>
       </c>
       <c r="E91">
-        <v>4.61743068695068</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557F5C6-F7C3-2A40-891D-96BA5F29E064}">
-  <dimension ref="A1:E67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>23.298780441284102</v>
-      </c>
-      <c r="C1">
-        <v>26.047904968261701</v>
-      </c>
-      <c r="D1">
-        <v>0.69539558887481601</v>
-      </c>
-      <c r="E1">
-        <v>1.38581442832946</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>25.304876327514599</v>
-      </c>
-      <c r="C2">
-        <v>25.694612503051701</v>
-      </c>
-      <c r="D2">
-        <v>0.69312202930450395</v>
-      </c>
-      <c r="E2">
-        <v>1.38497567176818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>29.170730590820298</v>
-      </c>
-      <c r="C3">
-        <v>22.892215728759702</v>
-      </c>
-      <c r="D3">
-        <v>0.69017958641052202</v>
-      </c>
-      <c r="E3">
-        <v>1.3854128122329701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>32.743900299072202</v>
-      </c>
-      <c r="C4">
-        <v>23.077844619750898</v>
-      </c>
-      <c r="D4">
-        <v>0.68739485740661599</v>
-      </c>
-      <c r="E4">
-        <v>1.3872438669204701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>32.341461181640597</v>
-      </c>
-      <c r="C5">
-        <v>23.8023967742919</v>
-      </c>
-      <c r="D5">
-        <v>0.68338459730148304</v>
-      </c>
-      <c r="E5">
-        <v>1.3881744146346999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>34.262195587158203</v>
-      </c>
-      <c r="C6">
-        <v>26.131736755371001</v>
-      </c>
-      <c r="D6">
-        <v>0.68103897571563698</v>
-      </c>
-      <c r="E6">
-        <v>1.3904622793197601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>34.512195587158203</v>
-      </c>
-      <c r="C7">
-        <v>22.479042053222599</v>
-      </c>
-      <c r="D7">
-        <v>0.677284896373748</v>
-      </c>
-      <c r="E7">
-        <v>1.4055360555648799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>36.859756469726499</v>
-      </c>
-      <c r="C8">
-        <v>23.688623428344702</v>
-      </c>
-      <c r="D8">
-        <v>0.67194259166717496</v>
-      </c>
-      <c r="E8">
-        <v>1.4058743715286199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35.585365295410099</v>
-      </c>
-      <c r="C9">
-        <v>22.8323364257812</v>
-      </c>
-      <c r="D9">
-        <v>0.669824659824371</v>
-      </c>
-      <c r="E9">
-        <v>1.41259849071502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>36.975608825683501</v>
-      </c>
-      <c r="C10">
-        <v>22.862276077270501</v>
-      </c>
-      <c r="D10">
-        <v>0.66479200124740601</v>
-      </c>
-      <c r="E10">
-        <v>1.4299081563949501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>37.024387359619098</v>
-      </c>
-      <c r="C11">
-        <v>22.796407699584901</v>
-      </c>
-      <c r="D11">
-        <v>0.66220772266387895</v>
-      </c>
-      <c r="E11">
-        <v>1.4469201564788801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>38.804878234863203</v>
-      </c>
-      <c r="C12">
-        <v>23.251497268676701</v>
-      </c>
-      <c r="D12">
-        <v>0.65631854534149103</v>
-      </c>
-      <c r="E12">
-        <v>1.45640540122985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>39.0609741210937</v>
-      </c>
-      <c r="C13">
-        <v>22.7305393218994</v>
-      </c>
-      <c r="D13">
-        <v>0.65299087762832597</v>
-      </c>
-      <c r="E13">
-        <v>1.4871073961257899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>37.701217651367102</v>
-      </c>
-      <c r="C14">
-        <v>23.64670753479</v>
-      </c>
-      <c r="D14">
-        <v>0.64947754144668501</v>
-      </c>
-      <c r="E14">
-        <v>1.4743067026138299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>40.798778533935497</v>
-      </c>
-      <c r="C15">
-        <v>22.622755050659102</v>
-      </c>
-      <c r="D15">
-        <v>0.644123375415802</v>
-      </c>
-      <c r="E15">
-        <v>1.51391649246215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>40.597560882568303</v>
-      </c>
-      <c r="C16">
-        <v>23.401199340820298</v>
-      </c>
-      <c r="D16">
-        <v>0.63653308153152399</v>
-      </c>
-      <c r="E16">
-        <v>1.5280746221542301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>41.902439117431598</v>
-      </c>
-      <c r="C17">
-        <v>24.065868377685501</v>
-      </c>
-      <c r="D17">
-        <v>0.63255393505096402</v>
-      </c>
-      <c r="E17">
-        <v>1.5665851831436099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>43.567070007324197</v>
-      </c>
-      <c r="C18">
-        <v>22.910181045532202</v>
-      </c>
-      <c r="D18">
-        <v>0.62409931421279896</v>
-      </c>
-      <c r="E18">
-        <v>1.6255087852478001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>43.817070007324197</v>
-      </c>
-      <c r="C19">
-        <v>24.113773345947202</v>
-      </c>
-      <c r="D19">
-        <v>0.618813276290893</v>
-      </c>
-      <c r="E19">
-        <v>1.59958660602569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>45.237804412841797</v>
-      </c>
-      <c r="C20">
-        <v>23.814373016357401</v>
-      </c>
-      <c r="D20">
-        <v>0.61171120405197099</v>
-      </c>
-      <c r="E20">
-        <v>1.6228606700897199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>45.75</v>
-      </c>
-      <c r="C21">
-        <v>23.167665481567301</v>
-      </c>
-      <c r="D21">
-        <v>0.60729497671127297</v>
-      </c>
-      <c r="E21">
-        <v>1.67038905620574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>47.792682647705</v>
-      </c>
-      <c r="C22">
-        <v>24.113773345947202</v>
-      </c>
-      <c r="D22">
-        <v>0.59815746545791604</v>
-      </c>
-      <c r="E22">
-        <v>1.6911277770996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>49.231704711913999</v>
-      </c>
-      <c r="C23">
-        <v>24.826347351074201</v>
-      </c>
-      <c r="D23">
-        <v>0.58945220708847001</v>
-      </c>
-      <c r="E23">
-        <v>1.8187994956970199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>48.780487060546797</v>
-      </c>
-      <c r="C24">
-        <v>25.5449104309082</v>
-      </c>
-      <c r="D24">
-        <v>0.58601278066635099</v>
-      </c>
-      <c r="E24">
-        <v>1.73066270351409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>49.554874420166001</v>
-      </c>
-      <c r="C25">
-        <v>24.443115234375</v>
-      </c>
-      <c r="D25">
-        <v>0.58146888017654397</v>
-      </c>
-      <c r="E25">
-        <v>1.7749193906784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>51.481704711913999</v>
-      </c>
-      <c r="C26">
-        <v>23.946107864379801</v>
-      </c>
-      <c r="D26">
-        <v>0.56683743000030495</v>
-      </c>
-      <c r="E26">
-        <v>1.8117718696594201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>50.932926177978501</v>
-      </c>
-      <c r="C27">
-        <v>24.688623428344702</v>
-      </c>
-      <c r="D27">
-        <v>0.568034708499908</v>
-      </c>
-      <c r="E27">
-        <v>1.9630938768386801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>51.420730590820298</v>
-      </c>
-      <c r="C28">
-        <v>24.6287441253662</v>
-      </c>
-      <c r="D28">
-        <v>0.55986005067825295</v>
-      </c>
-      <c r="E28">
-        <v>1.9637861251830999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>51.445121765136697</v>
-      </c>
-      <c r="C29">
-        <v>24.9520969390869</v>
-      </c>
-      <c r="D29">
-        <v>0.55640554428100497</v>
-      </c>
-      <c r="E29">
-        <v>2.0254626274108798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>54.951217651367102</v>
-      </c>
-      <c r="C30">
-        <v>26.994012832641602</v>
-      </c>
-      <c r="D30">
-        <v>0.541961789131164</v>
-      </c>
-      <c r="E30">
-        <v>1.95716440677642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>54.774387359619098</v>
-      </c>
-      <c r="C31">
-        <v>23.8862285614013</v>
-      </c>
-      <c r="D31">
-        <v>0.53692996501922596</v>
-      </c>
-      <c r="E31">
-        <v>2.0988478660583398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>56.225608825683501</v>
-      </c>
-      <c r="C32">
-        <v>23.1856288909912</v>
-      </c>
-      <c r="D32">
-        <v>0.52841722965240401</v>
-      </c>
-      <c r="E32">
-        <v>2.2277865409850999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>56.439022064208899</v>
-      </c>
-      <c r="C33">
-        <v>25.760480880737301</v>
-      </c>
-      <c r="D33">
-        <v>0.52271121740341098</v>
-      </c>
-      <c r="E33">
-        <v>2.07437992095947</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>57.817070007324197</v>
-      </c>
-      <c r="C34">
-        <v>26.419162750244102</v>
-      </c>
-      <c r="D34">
-        <v>0.51771783828735296</v>
-      </c>
-      <c r="E34">
-        <v>2.26927185058593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>56.408535003662102</v>
-      </c>
-      <c r="C35">
-        <v>26.658683776855401</v>
-      </c>
-      <c r="D35">
-        <v>0.512212574481964</v>
-      </c>
-      <c r="E35">
-        <v>2.3221013545989901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>58.554874420166001</v>
-      </c>
-      <c r="C36">
-        <v>25.64670753479</v>
-      </c>
-      <c r="D36">
-        <v>0.50204664468765203</v>
-      </c>
-      <c r="E36">
-        <v>2.3599781990051198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>58.573169708251903</v>
-      </c>
-      <c r="C37">
-        <v>25.754491806030199</v>
-      </c>
-      <c r="D37">
-        <v>0.50110113620758001</v>
-      </c>
-      <c r="E37">
-        <v>2.8930199146270699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>59.128047943115199</v>
-      </c>
-      <c r="C38">
-        <v>26.077844619750898</v>
-      </c>
-      <c r="D38">
-        <v>0.49348649382591198</v>
-      </c>
-      <c r="E38">
-        <v>2.7226593494415199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>61.243900299072202</v>
-      </c>
-      <c r="C39">
-        <v>26.029941558837798</v>
-      </c>
-      <c r="D39">
-        <v>0.48016560077667197</v>
-      </c>
-      <c r="E39">
-        <v>2.61259889602661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>60.073169708251903</v>
-      </c>
-      <c r="C40">
-        <v>26.9520969390869</v>
-      </c>
-      <c r="D40">
-        <v>0.48846885561942999</v>
-      </c>
-      <c r="E40">
-        <v>2.53662681579589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>60.804874420166001</v>
-      </c>
-      <c r="C41">
-        <v>25.694612503051701</v>
-      </c>
-      <c r="D41">
-        <v>0.48129808902740401</v>
-      </c>
-      <c r="E41">
-        <v>2.7028856277465798</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>61.048778533935497</v>
-      </c>
-      <c r="C42">
-        <v>24.1197605133056</v>
-      </c>
-      <c r="D42">
-        <v>0.48008581995964</v>
-      </c>
-      <c r="E42">
-        <v>2.7205729484558101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>62.280487060546797</v>
-      </c>
-      <c r="C43">
-        <v>25.3413181304931</v>
-      </c>
-      <c r="D43">
-        <v>0.47769650816917397</v>
-      </c>
-      <c r="E43">
-        <v>2.7120947837829501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>62.8719482421875</v>
-      </c>
-      <c r="C44">
-        <v>26.1077861785888</v>
-      </c>
-      <c r="D44">
-        <v>0.462031960487365</v>
-      </c>
-      <c r="E44">
-        <v>2.7395999431610099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>62.878047943115199</v>
-      </c>
-      <c r="C45">
-        <v>25.029941558837798</v>
-      </c>
-      <c r="D45">
-        <v>0.46024069190025302</v>
-      </c>
-      <c r="E45">
-        <v>3.33113241195678</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>64.359756469726506</v>
-      </c>
-      <c r="C46">
-        <v>25.574851989746001</v>
-      </c>
-      <c r="D46">
-        <v>0.45140019059181202</v>
-      </c>
-      <c r="E46">
-        <v>3.14343857765197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>63.798778533935497</v>
-      </c>
-      <c r="C47">
-        <v>24.197605133056602</v>
-      </c>
-      <c r="D47">
-        <v>0.45692265033721902</v>
-      </c>
-      <c r="E47">
-        <v>2.8018901348114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>63.0609741210937</v>
-      </c>
-      <c r="C48">
-        <v>24.8682651519775</v>
-      </c>
-      <c r="D48">
-        <v>0.44957920908927901</v>
-      </c>
-      <c r="E48">
-        <v>2.8830966949462802</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>63.597557067871001</v>
-      </c>
-      <c r="C49">
-        <v>25.287425994873001</v>
-      </c>
-      <c r="D49">
-        <v>0.44827714562415999</v>
-      </c>
-      <c r="E49">
-        <v>3.5101933479309002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>64.384147644042898</v>
-      </c>
-      <c r="C50">
-        <v>25.143712997436499</v>
-      </c>
-      <c r="D50">
-        <v>0.44962540268897999</v>
-      </c>
-      <c r="E50">
-        <v>3.2422618865966699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>65.993896484375</v>
-      </c>
-      <c r="C51">
-        <v>25.329341888427699</v>
-      </c>
-      <c r="D51">
-        <v>0.438830256462097</v>
-      </c>
-      <c r="E51">
-        <v>3.5240378379821702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>65.792678833007798</v>
-      </c>
-      <c r="C52">
-        <v>25.556886672973601</v>
-      </c>
-      <c r="D52">
-        <v>0.43961617350578303</v>
-      </c>
-      <c r="E52">
-        <v>3.4290060997009202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>65.054878234863196</v>
-      </c>
-      <c r="C53">
-        <v>25.335330963134702</v>
-      </c>
-      <c r="D53">
-        <v>0.43878260254859902</v>
-      </c>
-      <c r="E53">
-        <v>3.2868390083312899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>65.469512939453097</v>
-      </c>
-      <c r="C54">
-        <v>26.281438827514599</v>
-      </c>
-      <c r="D54">
-        <v>0.430776536464691</v>
-      </c>
-      <c r="E54">
-        <v>3.2873141765594398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>65.597557067871094</v>
-      </c>
-      <c r="C55">
-        <v>25.209581375121999</v>
-      </c>
-      <c r="D55">
-        <v>0.432206541299819</v>
-      </c>
-      <c r="E55">
-        <v>4.3785386085510201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>66.067070007324205</v>
-      </c>
-      <c r="C56">
-        <v>25.389223098754801</v>
-      </c>
-      <c r="D56">
-        <v>0.42823463678359902</v>
-      </c>
-      <c r="E56">
-        <v>3.3856458663940399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>65.530487060546804</v>
-      </c>
-      <c r="C57">
-        <v>25.8682651519775</v>
-      </c>
-      <c r="D57">
-        <v>0.43060007691383301</v>
-      </c>
-      <c r="E57">
-        <v>3.1181309223175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>65.6219482421875</v>
-      </c>
-      <c r="C58">
-        <v>26.7305393218994</v>
-      </c>
-      <c r="D58">
-        <v>0.42589306831359802</v>
-      </c>
-      <c r="E58">
-        <v>3.2707536220550502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>67</v>
-      </c>
-      <c r="C59">
-        <v>25.431138992309499</v>
-      </c>
-      <c r="D59">
-        <v>0.41512674093246399</v>
-      </c>
-      <c r="E59">
-        <v>3.3694076538085902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>68.060974121093693</v>
-      </c>
-      <c r="C60">
-        <v>25.5808391571044</v>
-      </c>
-      <c r="D60">
-        <v>0.41579988598823497</v>
-      </c>
-      <c r="E60">
-        <v>3.4767777919769198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>66.170730590820298</v>
-      </c>
-      <c r="C61">
-        <v>25.700599670410099</v>
-      </c>
-      <c r="D61">
-        <v>0.41374862194061202</v>
-      </c>
-      <c r="E61">
-        <v>3.4860103130340501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>67.560974121093693</v>
-      </c>
-      <c r="C62">
-        <v>24.772455215454102</v>
-      </c>
-      <c r="D62">
-        <v>0.40115883946418701</v>
-      </c>
-      <c r="E62">
-        <v>4.0754876136779696</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>67.957313537597599</v>
-      </c>
-      <c r="C63">
-        <v>24.994012832641602</v>
-      </c>
-      <c r="D63">
-        <v>0.404553472995758</v>
-      </c>
-      <c r="E63">
-        <v>3.9197828769683798</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>68</v>
-      </c>
-      <c r="C64">
-        <v>24.964073181152301</v>
-      </c>
-      <c r="D64">
-        <v>0.39942696690559298</v>
-      </c>
-      <c r="E64">
-        <v>4.54534482955932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>68.530487060546804</v>
-      </c>
-      <c r="C65">
-        <v>25.083833694458001</v>
-      </c>
-      <c r="D65">
-        <v>0.40458315610885598</v>
-      </c>
-      <c r="E65">
-        <v>3.88504838943481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>68.493896484375</v>
-      </c>
-      <c r="C66">
-        <v>25.7664680480957</v>
-      </c>
-      <c r="D66">
-        <v>0.39566108584403897</v>
-      </c>
-      <c r="E66">
-        <v>3.6110169887542698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>68.890243530273395</v>
-      </c>
-      <c r="C67">
-        <v>26.5808391571044</v>
-      </c>
-      <c r="D67">
-        <v>0.39510911703109702</v>
-      </c>
-      <c r="E67">
-        <v>4.1586270332336399</v>
+        <v>2.2747170925140301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>79.109756469726506</v>
+      </c>
+      <c r="C92">
+        <v>31.4523811340332</v>
+      </c>
+      <c r="D92">
+        <v>0.277954012155532</v>
+      </c>
+      <c r="E92">
+        <v>2.3758044242858798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>79.524383544921804</v>
+      </c>
+      <c r="C93">
+        <v>31.297618865966701</v>
+      </c>
+      <c r="D93">
+        <v>0.27849885821342402</v>
+      </c>
+      <c r="E93">
+        <v>2.6423153877258301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>80.414634704589801</v>
+      </c>
+      <c r="C94">
+        <v>32.214286804199197</v>
+      </c>
+      <c r="D94">
+        <v>0.26925140619277899</v>
+      </c>
+      <c r="E94">
+        <v>2.4372823238372798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>78.5</v>
+      </c>
+      <c r="C95">
+        <v>30.845237731933501</v>
+      </c>
+      <c r="D95">
+        <v>0.27396768331527699</v>
+      </c>
+      <c r="E95">
+        <v>2.5252418518066402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>78.463409423828097</v>
+      </c>
+      <c r="C96">
+        <v>31.345237731933501</v>
+      </c>
+      <c r="D96">
+        <v>0.27734747529029802</v>
+      </c>
+      <c r="E96">
+        <v>2.3389630317687899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>78.597557067871094</v>
+      </c>
+      <c r="C97">
+        <v>31.8333339691162</v>
+      </c>
+      <c r="D97">
+        <v>0.27415561676025302</v>
+      </c>
+      <c r="E97">
+        <v>2.3358075618743799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>78.731704711914006</v>
+      </c>
+      <c r="C98">
+        <v>31.345237731933501</v>
+      </c>
+      <c r="D98">
+        <v>0.26903173327445901</v>
+      </c>
+      <c r="E98">
+        <v>2.4957456588745099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>79.658531188964801</v>
+      </c>
+      <c r="C99">
+        <v>30.690477371215799</v>
+      </c>
+      <c r="D99">
+        <v>0.26998934149742099</v>
+      </c>
+      <c r="E99">
+        <v>2.51142024993896</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>79.256095886230398</v>
+      </c>
+      <c r="C100">
+        <v>32.642856597900298</v>
+      </c>
+      <c r="D100">
+        <v>0.26799625158309898</v>
+      </c>
+      <c r="E100">
+        <v>2.2290670871734601</v>
       </c>
     </row>
   </sheetData>
@@ -11246,7 +12229,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/amount-of-files.xlsx
+++ b/output/amount-of-files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58222BDF-9628-764E-84CB-DB978486D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396E906-49D7-F04C-B972-543B630F6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29580" yWindow="2020" windowWidth="27920" windowHeight="15900" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
+    <workbookView xWindow="-20480" yWindow="1280" windowWidth="18820" windowHeight="16640" activeTab="4" xr2:uid="{D995A798-2BBA-3D41-A8D8-5B5A3B8306E5}"/>
   </bookViews>
   <sheets>
     <sheet name="50files" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="1000files" sheetId="5" r:id="rId4"/>
     <sheet name="Plot" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>epoch</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>val_loss</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -5315,10 +5318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA15AE3-BD6C-F346-A500-2AD29B6F41B3}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7040,6 +7043,27 @@
         <v>1.6748017100000001</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <f>MAX(B2:B101)</f>
+        <v>54.941177400000001</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" ref="C103:E103" si="0">MAX(C2:C101)</f>
+        <v>27.294117</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69760460000000002</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6748017100000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7047,10 +7071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D04D5B-3372-C940-BD58-8DCEEDA714DF}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8772,6 +8796,27 @@
         <v>2.52537536621093</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <f>MAX(B2:B101)</f>
+        <v>68.5</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" ref="C103:E103" si="0">MAX(C2:C101)</f>
+        <v>32.058822631835902</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69916200637817305</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="0"/>
+        <v>2.52537536621093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8779,10 +8824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F87E5C3-EEAD-A44E-A86A-801C73B6171A}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10504,6 +10549,27 @@
         <v>2.3062078952789302</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <f>MAX(B1:B101)</f>
+        <v>79.865852355957003</v>
+      </c>
+      <c r="C103">
+        <f>MAX(C1:C101)</f>
+        <v>34.297618865966797</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="C103:E103" si="0">MAX(D1:D100)</f>
+        <v>0.69746983051300004</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>2.73177933692932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10511,10 +10577,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557F5C6-F7C3-2A40-891D-96BA5F29E064}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12217,6 +12283,27 @@
       </c>
       <c r="E100">
         <v>2.2290670871734601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <f>MAX(B1:B100)</f>
+        <v>80.414634704589801</v>
+      </c>
+      <c r="C103">
+        <f>MAX(C1:C100)</f>
+        <v>33.511905670166001</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="C103:E103" si="0">MAX(D1:D100)</f>
+        <v>0.69533348083496005</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>2.6423153877258301</v>
       </c>
     </row>
   </sheetData>
@@ -12229,7 +12316,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
